--- a/CITS-WebService/Documentation/APEXA CITS Documentation.xlsx
+++ b/CITS-WebService/Documentation/APEXA CITS Documentation.xlsx
@@ -15,43 +15,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Michael Hesler</author>
-  </authors>
-  <commentList>
-    <comment ref="D58" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Michael Hesler:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Not sure if we ask this question
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="452">
   <si>
     <t>ACORD Hierarchy</t>
   </si>
@@ -107,12 +72,6 @@
   </si>
   <si>
     <t>OLI_LU_ORGFORM</t>
-  </si>
-  <si>
-    <t>OLI_ORG_SOLEP - 1 - Sole Proprietorship
-OLI_ORG_PARTNER - 2 - Partnership
-OLI_ORG_PRVCORP - 4 - Private Corporation
-OLI_ORG_PRVCORP - 5 - Public Corporation</t>
   </si>
   <si>
     <t>Will be listed in order of moved in date for advisors.  Only one address will be provided for organizations</t>
@@ -133,28 +92,10 @@
 OLI_ADTYPE_PREVRES - 29 - Previous Residence Address</t>
   </si>
   <si>
-    <t>Real</t>
-  </si>
-  <si>
-    <t>Translation of the key will be provided and not the key itself</t>
-  </si>
-  <si>
-    <t>OLI_PHONETYPE_HOME - 1 - Home
-OLI_PHONETYPE_BUS - 2 - Business
-OLI_PHONETYPE_BUSFAX - 4 - Business Fax
-OLI_PHONETYPE_MOBILE - 12 - Mobile
-OLI_PHONETYPE_PAGER - 13 - Pager
-OLI_PHONETYPE_HOMEFAX - 15 - Fax
-OLI_OTHER - 2147483647 - Other</t>
-  </si>
-  <si>
     <t>OLI_LU_PHONETYPE</t>
   </si>
   <si>
     <t>OLI_LU_NAMETYPE</t>
-  </si>
-  <si>
-    <t>OLI_NAMETYPE_MAIDEN - 1 - Maiden</t>
   </si>
   <si>
     <t>IDREF</t>
@@ -284,9 +225,6 @@
   </si>
   <si>
     <t>APEXA will only be capturing canadian licenses</t>
-  </si>
-  <si>
-    <t>OLI_PT_PERSON - 2 - Organization</t>
   </si>
   <si>
     <t>Empty Tag</t>
@@ -388,10 +326,6 @@
     <t>Owned/Employee Organization Associations (Primary is Person)</t>
   </si>
   <si>
-    <t>Only one url will be provided for organizations
-Not included for advisors</t>
-  </si>
-  <si>
     <t>OLI_REL_EMPLOYER - 7 - Employer
 OLI_REL_OWNEDBY - 25 - Owned By</t>
   </si>
@@ -474,12 +408,6 @@
     <t>TXLifeResponse/OLifE/Party[1]/Organization/OrgForm</t>
   </si>
   <si>
-    <t>TXLifeResponse/OLifE/Party[1]/Url[1]</t>
-  </si>
-  <si>
-    <t>TXLifeResponse/OLifE/Party[1]/Url[1]/URLAddr</t>
-  </si>
-  <si>
     <t>TXLifeResponse/OLifE/Party[1]/Address</t>
   </si>
   <si>
@@ -495,13 +423,7 @@
     <t>TXLifeResponse/OLifE/Party[1]/Address/City</t>
   </si>
   <si>
-    <t>TXLifeResponse/OLifE/Party[1]/Address/AddressState</t>
-  </si>
-  <si>
     <t>TXLifeResponse/OLifE/Party[1]/Address/Zip</t>
-  </si>
-  <si>
-    <t>TXLifeResponse/OLifE/Party[1]/Address/YearsAtAddress</t>
   </si>
   <si>
     <t>TXLifeResponse/OLifE/Party[1]/Phone</t>
@@ -613,9 +535,6 @@
     <t>TXLifeResponse/OLifE/Party[N]/EmailAddress/AddrLine</t>
   </si>
   <si>
-    <t>TXLifeResponse/OLifE/Party[N]/Employment/EmployerName</t>
-  </si>
-  <si>
     <t>TXLifeResponse/OLifE/Relation/@id</t>
   </si>
   <si>
@@ -741,12 +660,6 @@
   </si>
   <si>
     <t>TXLifeResponse/OLifE/Holding[N]/Loan/LoanAmt</t>
-  </si>
-  <si>
-    <t>TXLifeResponse/OLifE/Holding[N]/Loan/LoanDefaultDate</t>
-  </si>
-  <si>
-    <t>The date debt that the MGA/Carrier indicated it was due</t>
   </si>
   <si>
     <t>The partner that logged the debt</t>
@@ -827,9 +740,6 @@
     <t>All signatures associated with the document.  May have 0 or more signatures.</t>
   </si>
   <si>
-    <t>OLI_REL_EMPLOYER - 8 - Owner</t>
-  </si>
-  <si>
     <t>Basically we need a recurrent set of the items above for each associated advisor within the organization.
 Full profile information of the advisor including CHLIA questions, credit score, criminal background checks, licenses, E&amp;O and other businesses they are associated with.</t>
   </si>
@@ -891,9 +801,6 @@
     <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/RequirementInfo</t>
   </si>
   <si>
-    <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/RequirementInfo/@id</t>
-  </si>
-  <si>
     <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/RequirementInfo/@FulfillerPartyID</t>
   </si>
   <si>
@@ -921,9 +828,6 @@
     <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/RequirementInfo/Attachment/SignatureInfo[N]/@SignaturePartyID</t>
   </si>
   <si>
-    <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/RequirementInfo/Attachment/@DelegatedSignerPartyID</t>
-  </si>
-  <si>
     <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/RequirementInfo/Attachment/SignatureInfo[N]/SignatureDate</t>
   </si>
   <si>
@@ -957,9 +861,6 @@
     <t>TXLifeResponse/OLifE/Holding/Attachment/AttachmentBasicType</t>
   </si>
   <si>
-    <t>OLI_LU_BASICATTMNTTY_TEXT - 3 - File</t>
-  </si>
-  <si>
     <t>TXLifeResponse/OLifE/Party[1]/Address/PrefAddr</t>
   </si>
   <si>
@@ -988,21 +889,6 @@
   </si>
   <si>
     <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/CompanyProducerID</t>
-  </si>
-  <si>
-    <t>TXLifeResponse/OLifE/Party[1]/Producer/License/LicenseInterruptedInd</t>
-  </si>
-  <si>
-    <t>TXLifeResponse/OLifE/Party[1]/Producer/License/LicenseInterruptedReason</t>
-  </si>
-  <si>
-    <t>TXLifeResponse/OLifE/Party[1]/Producer/License/LicenseLevel</t>
-  </si>
-  <si>
-    <t>TXLifeResponse/OLifE/Party[1]/Producer/DesignationInfo[*]/DesignationName</t>
-  </si>
-  <si>
-    <t>TXLifeResponse/OLifE/Party[1]/Producer/EOCoverageInfo/@EOCoverageID</t>
   </si>
   <si>
     <t>TXLifeResponse/OLifE/Party[1]/Producer/EOCoverageInfo/</t>
@@ -1323,10 +1209,6 @@
     <t>Will be the APEXA Contract EntityId prefixed with the letters "REF"</t>
   </si>
   <si>
-    <t>Will be the APEXA RequirementId prefixed with the letters "REQ" plus "_" plus the party type.
-Example REQ1234_carrier</t>
-  </si>
-  <si>
     <t>Will be the APEXA EntityId prefixed with the letters "CQ"</t>
   </si>
   <si>
@@ -1400,12 +1282,6 @@
   </si>
   <si>
     <t>License Level</t>
-  </si>
-  <si>
-    <t>Reason of the interruption</t>
-  </si>
-  <si>
-    <t>License was interupted at some point between now and the origination date.</t>
   </si>
   <si>
     <t>The date the license was first issued</t>
@@ -1537,12 +1413,116 @@
 As far as APEXA is concerned the CITS Transfer Out status is used to represent that a contract has been transfered to either another company OR another contract within the same company.
 APEXA will only have the notion of a "Downgraded" contract which can be interpretted by the corresponding carrier/mga as per their internal business rules (Included here as 7 - Servicing Only)</t>
   </si>
+  <si>
+    <t>OLI_NAMETYPE_MAIDEN - 1 - Maiden
+OLI_NAMETYPE_PREVIOUS - 3 - Previous</t>
+  </si>
+  <si>
+    <t>OLI_ORG_SOLEP - 1 - Sole Proprietorship
+OLI_ORG_PARTNER - 2 - Partnership
+OLI_ORG_PRVCORP - 4 - Private Corporation
+OLI_ORG_PUBCORP - 5 - Public Corporation
+OLI_UNKNOWN - 0 - Unknown</t>
+  </si>
+  <si>
+    <t>TXLifeResponse/OLifE/Party[1]/Producer/DesignationInfo[*]/DesignationDesc</t>
+  </si>
+  <si>
+    <t>OLI_VARIANT_STRING - 8  - String</t>
+  </si>
+  <si>
+    <t>TXLifeResponse/OLifE/Party[1]/Producer/EOCoverageInfo/@HoldingID</t>
+  </si>
+  <si>
+    <t>TXLifeResponse/OLifE/Party[1]/Attachment/FileName</t>
+  </si>
+  <si>
+    <t>TXLifeResponse/OLifE/Party[1]/Producer/License/LevelDesc</t>
+  </si>
+  <si>
+    <t>TXLifeResponse/OLifE/Party[1]/Producer/License/FullName</t>
+  </si>
+  <si>
+    <t>Full name on license</t>
+  </si>
+  <si>
+    <t>TXLifeResponse/OLifE/Holding/Attachment/FileName</t>
+  </si>
+  <si>
+    <t>TXLifeResponse/OLifE/Party[1]/Phone/Ext</t>
+  </si>
+  <si>
+    <t>OLI_PHONETYPE_HOME - 1 - Home
+OLI_PHONETYPE_BUS - 2 - Business
+OLI_PHONETYPE_TEMP - 11 - Temporary
+OLI_PHONETYPE_MOBILE - 12 - Mobile
+OLI_PHONETYPE_BUSTOLLFREE - 17 - Business Toll-Free
+OLI_PHONETYPE_FAX - 19 - Fax
+OLI_PHONETYPE_PRIMARY - 26 - Primary Phone
+OLI_PHONETYPE_ALTERNATE - 27 - Secondary or Alternate Phone
+OLI_OTHER - 2147483647 - Other</t>
+  </si>
+  <si>
+    <t>TXLifeResponse/OLifE/Party[1]/Address/AddressStateTC</t>
+  </si>
+  <si>
+    <t>TXLifeResponse/OLifE/Party[1]/Address/AddressCountryTC</t>
+  </si>
+  <si>
+    <t>OLI_NATION_CANADA - 2 - Canada
+OLI_NATION_USA - 1 - United States of America</t>
+  </si>
+  <si>
+    <t>TXLifeResponse/OLifE/Party[1]/Address/StartDate</t>
+  </si>
+  <si>
+    <t>TXLifeResponse/OLifE/Party[1]/Address/EndDate</t>
+  </si>
+  <si>
+    <t>Date moved in</t>
+  </si>
+  <si>
+    <t>Date moved out</t>
+  </si>
+  <si>
+    <t>OLI_REL_EMPLOYER - 8 - Owner
+OLI_REL_EMPLOYEE - 6 - Employee</t>
+  </si>
+  <si>
+    <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/TransferInfo/CarrierAppointmentID</t>
+  </si>
+  <si>
+    <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/RequirementInfo/Attachment/FileName</t>
+  </si>
+  <si>
+    <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/RequirementInfo/Attachment/SignatureInfo[N]/@DelegatedSignerPartyID</t>
+  </si>
+  <si>
+    <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/DistributionAgreementInfo[1]/@CheckMailingID</t>
+  </si>
+  <si>
+    <t>Banking Information - Only sent if advisor as indicated Cheque as the form of payment
+Will be the APEXA Address prefixed with the letters "ADR"
+Same as corresponding TXLifeResponse/OLifE/Address/@id</t>
+  </si>
+  <si>
+    <t>Contract Cheque Mailing Address</t>
+  </si>
+  <si>
+    <t>TXLifeResponse/OLifE/Party[1]/Address/@id</t>
+  </si>
+  <si>
+    <t>Will be the APEXA AddressID prefixed with "ADR"</t>
+  </si>
+  <si>
+    <t>Will be the APEXA EntityId prefixed with the letters "CONSD"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1687,25 +1667,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -1721,7 +1682,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1841,12 +1802,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2024,7 +1979,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2035,7 +1990,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2050,19 +2005,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2074,16 +2020,22 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2095,22 +2047,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2486,97 +2429,97 @@
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="15" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>359</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="12" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="15" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="B6" s="15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="15" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="D6" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>366</v>
+      <c r="D7" s="12" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2898,7 +2841,7 @@
     <col min="4" max="4" width="66.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="14" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2912,122 +2855,122 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="14" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:4" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="14" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="D2" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="15" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="1:4" s="12" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="14" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="C4" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="14" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>31</v>
+      <c r="D5" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:4" s="14" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="A7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="14" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="D8" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="11" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="14" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="D9" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>20</v>
+      <c r="C10" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>342</v>
+      <c r="D11" s="11" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>341</v>
+      <c r="D12" s="11" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -3039,26 +2982,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D278"/>
+  <dimension ref="A1:M293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C223" sqref="C223"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="78.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="13" width="9.140625" style="15"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3072,31 +3016,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -3105,83 +3049,92 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>226</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>100</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>101</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>3</v>
@@ -3190,115 +3143,160 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>102</v>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>103</v>
+      <c r="D13" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D14" s="23"/>
-    </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>192</v>
+        <v>408</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>196</v>
+      <c r="D15" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>194</v>
+      <c r="D16" s="21"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>104</v>
+        <v>183</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>105</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>106</v>
+    <row r="20" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>107</v>
+    <row r="21" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>108</v>
+    <row r="22" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>109</v>
+    <row r="23" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>110</v>
+    <row r="24" spans="1:13" ht="56.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>13</v>
@@ -3307,33 +3305,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>111</v>
+    <row r="25" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>112</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>113</v>
+    <row r="27" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>114</v>
+    <row r="28" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>10</v>
@@ -3342,2613 +3340,3419 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="45" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>115</v>
+    <row r="29" spans="1:13" ht="56.25" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>116</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="D30" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="14" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+    </row>
+    <row r="32" spans="1:13" ht="67.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="22"/>
-    </row>
-    <row r="32" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="67.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>120</v>
+    </row>
+    <row r="34" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>121</v>
+    <row r="35" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>122</v>
+    <row r="36" spans="1:13" ht="146.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>435</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>124</v>
+        <v>55</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="14" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+    </row>
+    <row r="38" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="7" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>274</v>
+    <row r="39" spans="1:13" s="7" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>125</v>
+        <v>257</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+    </row>
+    <row r="40" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>438</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="14" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+    </row>
+    <row r="42" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="78.75" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>128</v>
+    <row r="43" spans="1:13" ht="101.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>129</v>
+        <v>21</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>130</v>
+    <row r="45" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B46" s="3" t="s">
+    <row r="46" spans="1:13" s="14" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+    </row>
+    <row r="47" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="49" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+    </row>
+    <row r="52" spans="1:13" s="8" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+    </row>
+    <row r="53" spans="1:13" s="8" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+    </row>
+    <row r="54" spans="1:13" s="10" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+    </row>
+    <row r="55" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+    </row>
+    <row r="56" spans="1:13" s="14" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+    </row>
+    <row r="57" spans="1:13" s="14" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="14" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="14" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="2" customFormat="1" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+    </row>
+    <row r="62" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="1:13" ht="33.75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="B63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="67.5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B64" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="14" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B65" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B49" s="7" t="s">
+      <c r="D65" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+    </row>
+    <row r="68" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="8" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="8" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="11" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="12" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="12" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="2" customFormat="1" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-    </row>
-    <row r="60" spans="1:4" ht="33.75" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="67.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="9" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-    </row>
-    <row r="65" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="14" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="33.75" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B68" s="3" t="s">
+      <c r="D68" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="11" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+    </row>
+    <row r="70" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="2" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="9" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>149</v>
+      <c r="D70" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>138</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="9" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="B72" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="14" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B72" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="146.25" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>150</v>
+      <c r="D72" s="14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="146.25" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>151</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="33.75" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-    </row>
-    <row r="76" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B76" s="3" t="s">
+      <c r="D75" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="14" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+    </row>
+    <row r="77" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+    </row>
+    <row r="78" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B78" s="3" t="s">
+      <c r="D78" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B79" s="3" t="s">
+      <c r="D80" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B80" s="3" t="s">
+      <c r="D81" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-    </row>
-    <row r="82" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D82" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>278</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+    </row>
+    <row r="84" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B85" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+    </row>
+    <row r="86" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-    </row>
-    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="D87" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+    </row>
+    <row r="89" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B88" s="3" t="s">
+      <c r="D89" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B89" s="3" t="s">
+      <c r="D90" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B90" s="3" t="s">
+      <c r="C91" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-    </row>
-    <row r="93" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>215</v>
+    <row r="93" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B94" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+    </row>
+    <row r="95" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B95" s="3" t="s">
+      <c r="D96" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B96" s="3" t="s">
+      <c r="C97" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B97" s="3" t="s">
+    <row r="99" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="100" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>160</v>
+      <c r="A100" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>161</v>
+        <v>21</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>162</v>
+    <row r="102" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>216</v>
+    <row r="103" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B104" s="3" t="s">
+      <c r="D104" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D105" s="3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>165</v>
+      <c r="A106" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>166</v>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="108" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>167</v>
+      <c r="A108" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>168</v>
+      <c r="A109" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-    </row>
-    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B111" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+    </row>
+    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B112" s="3" t="s">
+    <row r="113" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B113" s="3" t="s">
+      <c r="D113" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>172</v>
+    <row r="115" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
+        <v>251</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>173</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>174</v>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>175</v>
+        <v>3</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>176</v>
+        <v>63</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>177</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>178</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
+        <v>165</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="45" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>179</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>180</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="45" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" s="2" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" s="8" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
+      <c r="D124" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" s="2" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="15"/>
+      <c r="L125" s="15"/>
+      <c r="M125" s="15"/>
+    </row>
+    <row r="126" spans="1:13" s="8" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="15"/>
+      <c r="L126" s="15"/>
+      <c r="M126" s="15"/>
+    </row>
+    <row r="127" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" s="14" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="15"/>
+      <c r="L129" s="15"/>
+      <c r="M129" s="15"/>
+    </row>
+    <row r="130" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A132" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B134" s="17"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+    </row>
+    <row r="135" spans="1:13" s="2" customFormat="1" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="15"/>
+      <c r="L135" s="15"/>
+      <c r="M135" s="15"/>
+    </row>
+    <row r="136" spans="1:13" s="2" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="15"/>
+      <c r="L136" s="15"/>
+      <c r="M136" s="15"/>
+    </row>
+    <row r="137" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A137" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="281.25" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A138" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" s="11" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A139" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="15"/>
+      <c r="L139" s="15"/>
+      <c r="M139" s="15"/>
+    </row>
+    <row r="140" spans="1:13" s="11" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A140" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="15"/>
+      <c r="L140" s="15"/>
+      <c r="M140" s="15"/>
+    </row>
+    <row r="141" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A141" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+      <c r="M142" s="15"/>
+    </row>
+    <row r="143" spans="1:13" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="15"/>
+      <c r="L143" s="15"/>
+      <c r="M143" s="15"/>
+    </row>
+    <row r="144" spans="1:13" s="7" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A144" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="15"/>
+      <c r="K144" s="15"/>
+      <c r="L144" s="15"/>
+      <c r="M144" s="15"/>
+    </row>
+    <row r="145" spans="1:13" s="7" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A145" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="15"/>
+      <c r="M145" s="15"/>
+    </row>
+    <row r="146" spans="1:13" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A146" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="15"/>
+    </row>
+    <row r="147" spans="1:13" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A147" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C147" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C125" s="8" t="s">
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="15"/>
+      <c r="M147" s="15"/>
+    </row>
+    <row r="148" spans="1:13" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A148" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="15"/>
+      <c r="K148" s="15"/>
+      <c r="L148" s="15"/>
+      <c r="M148" s="15"/>
+    </row>
+    <row r="149" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A149" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="B149" s="17"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+    </row>
+    <row r="150" spans="1:13" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A151" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A152" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="15"/>
+      <c r="M152" s="15"/>
+    </row>
+    <row r="153" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A153" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A154" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A155" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="15"/>
+      <c r="K155" s="15"/>
+      <c r="L155" s="15"/>
+      <c r="M155" s="15"/>
+    </row>
+    <row r="156" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A156" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="15"/>
+      <c r="K156" s="15"/>
+      <c r="L156" s="15"/>
+      <c r="M156" s="15"/>
+    </row>
+    <row r="157" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A157" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A159" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="21"/>
+    </row>
+    <row r="160" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A160" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D160" s="21"/>
+    </row>
+    <row r="161" spans="1:13" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A161" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D161" s="21"/>
+    </row>
+    <row r="162" spans="1:13" s="6" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A162" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="15"/>
+      <c r="K162" s="15"/>
+      <c r="L162" s="15"/>
+      <c r="M162" s="15"/>
+    </row>
+    <row r="163" spans="1:13" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A163" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="15"/>
+      <c r="K163" s="15"/>
+      <c r="L163" s="15"/>
+      <c r="M163" s="15"/>
+    </row>
+    <row r="164" spans="1:13" s="6" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A164" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="15"/>
+      <c r="K164" s="15"/>
+      <c r="L164" s="15"/>
+      <c r="M164" s="15"/>
+    </row>
+    <row r="165" spans="1:13" s="6" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A165" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="15"/>
+      <c r="K165" s="15"/>
+      <c r="L165" s="15"/>
+      <c r="M165" s="15"/>
+    </row>
+    <row r="166" spans="1:13" s="6" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A166" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="15"/>
+      <c r="K166" s="15"/>
+      <c r="L166" s="15"/>
+      <c r="M166" s="15"/>
+    </row>
+    <row r="167" spans="1:13" s="6" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A167" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="15"/>
+      <c r="K167" s="15"/>
+      <c r="L167" s="15"/>
+      <c r="M167" s="15"/>
+    </row>
+    <row r="168" spans="1:13" s="8" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A168" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C168" s="8" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B128" s="3" t="s">
+      <c r="D168" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+      <c r="I168" s="15"/>
+      <c r="J168" s="15"/>
+      <c r="K168" s="15"/>
+      <c r="L168" s="15"/>
+      <c r="M168" s="15"/>
+    </row>
+    <row r="169" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A169" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B169" s="17"/>
+      <c r="C169" s="17"/>
+      <c r="D169" s="17"/>
+    </row>
+    <row r="170" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B129" s="3" t="s">
+      <c r="D170" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B130" s="3" t="s">
+      <c r="D171" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B131" s="3" t="s">
+      <c r="C172" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-    </row>
-    <row r="133" spans="1:4" s="2" customFormat="1" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B133" s="2" t="s">
+    <row r="174" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" s="2" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="B134" s="2" t="s">
+      <c r="D174" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="281.25" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" s="14" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A137" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" s="14" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A138" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="D138" s="14" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A141" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" s="7" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A142" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" s="7" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A143" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A144" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A146" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="B147" s="18"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
-    </row>
-    <row r="148" spans="1:4" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A150" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A154" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D157" s="21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D158" s="22"/>
-    </row>
-    <row r="159" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D159" s="22"/>
-    </row>
-    <row r="160" spans="1:4" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D160" s="22"/>
-    </row>
-    <row r="161" spans="1:4" s="6" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A162" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" s="6" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A163" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" s="6" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" s="6" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" s="6" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" s="8" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A167" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A168" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B168" s="18"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
-    </row>
-    <row r="169" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="178" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>219</v>
+        <v>35</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A181" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B181" s="18"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="18"/>
-    </row>
-    <row r="182" spans="1:4" s="13" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="B182" s="20"/>
-      <c r="C182" s="20"/>
-      <c r="D182" s="20"/>
+      <c r="A181" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B181" s="17"/>
+      <c r="C181" s="17"/>
+      <c r="D181" s="17"/>
+    </row>
+    <row r="182" spans="1:4" s="14" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B182" s="19"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="19"/>
     </row>
     <row r="183" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
-        <v>216</v>
+      <c r="A183" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
-        <v>163</v>
+      <c r="A184" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
-        <v>164</v>
+      <c r="A185" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
-        <v>165</v>
+      <c r="A186" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
     </row>
     <row r="187" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>166</v>
+      <c r="A187" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="188" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
-        <v>167</v>
+      <c r="A188" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
-        <v>168</v>
+      <c r="A189" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="190" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A190" s="3" t="s">
-        <v>189</v>
+      <c r="A190" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A191" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="B191" s="18"/>
-      <c r="C191" s="18"/>
-      <c r="D191" s="18"/>
+      <c r="A191" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B191" s="17"/>
+      <c r="C191" s="17"/>
+      <c r="D191" s="17"/>
     </row>
     <row r="192" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
-        <v>216</v>
+      <c r="A192" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
-        <v>163</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A193" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
-        <v>164</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A194" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
-        <v>165</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A195" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
-        <v>166</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A196" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
-        <v>167</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A197" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A198" s="3" t="s">
-        <v>168</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A198" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
-        <v>189</v>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A199" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
-        <v>215</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
-        <v>152</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A201" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
-        <v>154</v>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A202" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" s="14" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" s="11" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A203" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B203" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B203" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" s="14" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E203" s="15"/>
+      <c r="F203" s="15"/>
+      <c r="G203" s="15"/>
+      <c r="H203" s="15"/>
+      <c r="I203" s="15"/>
+      <c r="J203" s="15"/>
+      <c r="K203" s="15"/>
+      <c r="L203" s="15"/>
+      <c r="M203" s="15"/>
+    </row>
+    <row r="204" spans="1:13" s="11" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="B204" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B204" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
-        <v>354</v>
+      <c r="E204" s="15"/>
+      <c r="F204" s="15"/>
+      <c r="G204" s="15"/>
+      <c r="H204" s="15"/>
+      <c r="I204" s="15"/>
+      <c r="J204" s="15"/>
+      <c r="K204" s="15"/>
+      <c r="L204" s="15"/>
+      <c r="M204" s="15"/>
+    </row>
+    <row r="205" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A205" s="14" t="s">
+        <v>331</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:4" s="7" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="B206" s="18"/>
-      <c r="C206" s="18"/>
-      <c r="D206" s="18"/>
-    </row>
-    <row r="207" spans="1:4" s="7" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A207" s="7" t="s">
-        <v>215</v>
+    <row r="206" spans="1:13" s="7" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B206" s="17"/>
+      <c r="C206" s="17"/>
+      <c r="D206" s="17"/>
+      <c r="E206" s="15"/>
+      <c r="F206" s="15"/>
+      <c r="G206" s="15"/>
+      <c r="H206" s="15"/>
+      <c r="I206" s="15"/>
+      <c r="J206" s="15"/>
+      <c r="K206" s="15"/>
+      <c r="L206" s="15"/>
+      <c r="M206" s="15"/>
+    </row>
+    <row r="207" spans="1:13" s="7" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A207" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A208" s="7" t="s">
-        <v>152</v>
+        <v>284</v>
+      </c>
+      <c r="E207" s="15"/>
+      <c r="F207" s="15"/>
+      <c r="G207" s="15"/>
+      <c r="H207" s="15"/>
+      <c r="I207" s="15"/>
+      <c r="J207" s="15"/>
+      <c r="K207" s="15"/>
+      <c r="L207" s="15"/>
+      <c r="M207" s="15"/>
+    </row>
+    <row r="208" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A208" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A209" s="7" t="s">
-        <v>155</v>
+        <v>356</v>
+      </c>
+      <c r="E208" s="15"/>
+      <c r="F208" s="15"/>
+      <c r="G208" s="15"/>
+      <c r="H208" s="15"/>
+      <c r="I208" s="15"/>
+      <c r="J208" s="15"/>
+      <c r="K208" s="15"/>
+      <c r="L208" s="15"/>
+      <c r="M208" s="15"/>
+    </row>
+    <row r="209" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A209" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D209" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E209" s="15"/>
+      <c r="F209" s="15"/>
+      <c r="G209" s="15"/>
+      <c r="H209" s="15"/>
+      <c r="I209" s="15"/>
+      <c r="J209" s="15"/>
+      <c r="K209" s="15"/>
+      <c r="L209" s="15"/>
+      <c r="M209" s="15"/>
+    </row>
+    <row r="210" spans="1:13" s="14" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A210" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B210" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E210" s="15"/>
+      <c r="F210" s="15"/>
+      <c r="G210" s="15"/>
+      <c r="H210" s="15"/>
+      <c r="I210" s="15"/>
+      <c r="J210" s="15"/>
+      <c r="K210" s="15"/>
+      <c r="L210" s="15"/>
+      <c r="M210" s="15"/>
+    </row>
+    <row r="211" spans="1:13" s="14" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A211" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B211" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E211" s="15"/>
+      <c r="F211" s="15"/>
+      <c r="G211" s="15"/>
+      <c r="H211" s="15"/>
+      <c r="I211" s="15"/>
+      <c r="J211" s="15"/>
+      <c r="K211" s="15"/>
+      <c r="L211" s="15"/>
+      <c r="M211" s="15"/>
+    </row>
+    <row r="212" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A212" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B212" s="17"/>
+      <c r="C212" s="17"/>
+      <c r="D212" s="17"/>
+    </row>
+    <row r="213" spans="1:13" s="8" customFormat="1" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E213" s="15"/>
+      <c r="F213" s="15"/>
+      <c r="G213" s="15"/>
+      <c r="H213" s="15"/>
+      <c r="I213" s="15"/>
+      <c r="J213" s="15"/>
+      <c r="K213" s="15"/>
+      <c r="L213" s="15"/>
+      <c r="M213" s="15"/>
+    </row>
+    <row r="214" spans="1:13" s="8" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A214" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E214" s="15"/>
+      <c r="F214" s="15"/>
+      <c r="G214" s="15"/>
+      <c r="H214" s="15"/>
+      <c r="I214" s="15"/>
+      <c r="J214" s="15"/>
+      <c r="K214" s="15"/>
+      <c r="L214" s="15"/>
+      <c r="M214" s="15"/>
+    </row>
+    <row r="215" spans="1:13" s="8" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A215" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E215" s="15"/>
+      <c r="F215" s="15"/>
+      <c r="G215" s="15"/>
+      <c r="H215" s="15"/>
+      <c r="I215" s="15"/>
+      <c r="J215" s="15"/>
+      <c r="K215" s="15"/>
+      <c r="L215" s="15"/>
+      <c r="M215" s="15"/>
+    </row>
+    <row r="216" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A216" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D216" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A217" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B217" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D217" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A218" s="15" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A210" s="17" t="s">
+      <c r="B218" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A219" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="D219" s="15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" s="15" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A220" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B220" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D220" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" s="15" customFormat="1" ht="67.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A221" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B221" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C221" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="D221" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A222" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B222" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A223" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B223" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A224" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B224" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" s="15" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A225" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B225" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D225" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A226" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B226" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" s="15" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A227" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B227" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D227" s="15" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A228" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B228" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D228" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" s="15" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A229" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B229" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D229" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A230" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D230" s="15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" s="15" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A231" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="B231" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" s="15" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A232" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="B232" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" s="2" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A233" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E233" s="15"/>
+      <c r="F233" s="15"/>
+      <c r="G233" s="15"/>
+      <c r="H233" s="15"/>
+      <c r="I233" s="15"/>
+      <c r="J233" s="15"/>
+      <c r="K233" s="15"/>
+      <c r="L233" s="15"/>
+      <c r="M233" s="15"/>
+    </row>
+    <row r="234" spans="1:13" s="2" customFormat="1" ht="33.75" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A234" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E234" s="15"/>
+      <c r="F234" s="15"/>
+      <c r="G234" s="15"/>
+      <c r="H234" s="15"/>
+      <c r="I234" s="15"/>
+      <c r="J234" s="15"/>
+      <c r="K234" s="15"/>
+      <c r="L234" s="15"/>
+      <c r="M234" s="15"/>
+    </row>
+    <row r="235" spans="1:13" s="15" customFormat="1" ht="33.75" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A235" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="B235" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D235" s="15" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" s="2" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A236" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E236" s="15"/>
+      <c r="F236" s="15"/>
+      <c r="G236" s="15"/>
+      <c r="H236" s="15"/>
+      <c r="I236" s="15"/>
+      <c r="J236" s="15"/>
+      <c r="K236" s="15"/>
+      <c r="L236" s="15"/>
+      <c r="M236" s="15"/>
+    </row>
+    <row r="237" spans="1:13" s="13" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A237" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D237" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="E237" s="15"/>
+      <c r="F237" s="15"/>
+      <c r="G237" s="15"/>
+      <c r="H237" s="15"/>
+      <c r="I237" s="15"/>
+      <c r="J237" s="15"/>
+      <c r="K237" s="15"/>
+      <c r="L237" s="15"/>
+      <c r="M237" s="15"/>
+    </row>
+    <row r="238" spans="1:13" s="13" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A238" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="B238" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="D238" s="21"/>
+      <c r="E238" s="15"/>
+      <c r="F238" s="15"/>
+      <c r="G238" s="15"/>
+      <c r="H238" s="15"/>
+      <c r="I238" s="15"/>
+      <c r="J238" s="15"/>
+      <c r="K238" s="15"/>
+      <c r="L238" s="15"/>
+      <c r="M238" s="15"/>
+    </row>
+    <row r="239" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A239" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" ht="45" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A240" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" ht="11.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A241" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" s="20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" ht="11.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A242" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="21"/>
+    </row>
+    <row r="243" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A243" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" s="8" customFormat="1" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A244" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E244" s="15"/>
+      <c r="F244" s="15"/>
+      <c r="G244" s="15"/>
+      <c r="H244" s="15"/>
+      <c r="I244" s="15"/>
+      <c r="J244" s="15"/>
+      <c r="K244" s="15"/>
+      <c r="L244" s="15"/>
+      <c r="M244" s="15"/>
+    </row>
+    <row r="245" spans="1:13" s="2" customFormat="1" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A245" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E245" s="15"/>
+      <c r="F245" s="15"/>
+      <c r="G245" s="15"/>
+      <c r="H245" s="15"/>
+      <c r="I245" s="15"/>
+      <c r="J245" s="15"/>
+      <c r="K245" s="15"/>
+      <c r="L245" s="15"/>
+      <c r="M245" s="15"/>
+    </row>
+    <row r="246" spans="1:13" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A246" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A247" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" s="14" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A248" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B248" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E248" s="15"/>
+      <c r="F248" s="15"/>
+      <c r="G248" s="15"/>
+      <c r="H248" s="15"/>
+      <c r="I248" s="15"/>
+      <c r="J248" s="15"/>
+      <c r="K248" s="15"/>
+      <c r="L248" s="15"/>
+      <c r="M248" s="15"/>
+    </row>
+    <row r="249" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A249" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" ht="33.75" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A250" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" ht="33.75" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A251" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A252" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A253" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" s="9" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="B254" s="24"/>
+      <c r="C254" s="24"/>
+      <c r="D254" s="24"/>
+      <c r="E254" s="15"/>
+      <c r="F254" s="15"/>
+      <c r="G254" s="15"/>
+      <c r="H254" s="15"/>
+      <c r="I254" s="15"/>
+      <c r="J254" s="15"/>
+      <c r="K254" s="15"/>
+      <c r="L254" s="15"/>
+      <c r="M254" s="15"/>
+    </row>
+    <row r="255" spans="1:13" s="7" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A255" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="B210" s="18"/>
-      <c r="C210" s="18"/>
-      <c r="D210" s="18"/>
-    </row>
-    <row r="211" spans="1:4" s="8" customFormat="1" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B211" s="8" t="s">
+      <c r="B255" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D211" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" s="8" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A212" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" s="8" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D213" s="7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A214" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="D214" s="15" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" s="2" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" s="9" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A216" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D216" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" s="9" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A217" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="B217" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D217" s="9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" s="15" customFormat="1" ht="67.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A218" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B218" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C218" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="D218" s="15" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" s="2" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" s="9" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A220" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D220" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" s="12" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A221" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="B221" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D221" s="12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" s="12" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A222" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B222" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D222" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" s="9" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A223" s="9" t="s">
+      <c r="D255" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E255" s="15"/>
+      <c r="F255" s="15"/>
+      <c r="G255" s="15"/>
+      <c r="H255" s="15"/>
+      <c r="I255" s="15"/>
+      <c r="J255" s="15"/>
+      <c r="K255" s="15"/>
+      <c r="L255" s="15"/>
+      <c r="M255" s="15"/>
+    </row>
+    <row r="256" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A256" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D256" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E256" s="15"/>
+      <c r="F256" s="15"/>
+      <c r="G256" s="15"/>
+      <c r="H256" s="15"/>
+      <c r="I256" s="15"/>
+      <c r="J256" s="15"/>
+      <c r="K256" s="15"/>
+      <c r="L256" s="15"/>
+      <c r="M256" s="15"/>
+    </row>
+    <row r="257" spans="1:13" s="7" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A257" s="14" t="s">
         <v>323</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D223" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" s="9" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A224" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="B224" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D224" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" s="9" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A225" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="B225" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D225" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" s="9" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A226" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="B226" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D226" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" s="9" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A227" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="B227" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D227" s="27" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" s="9" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A228" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="B228" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D228" s="28"/>
-    </row>
-    <row r="229" spans="1:4" s="9" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A229" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C229" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="D229" s="28"/>
-    </row>
-    <row r="230" spans="1:4" s="2" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" s="2" customFormat="1" ht="33.75" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" s="2" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" s="16" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A233" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="B233" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D233" s="23" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" s="16" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A234" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="B234" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="C234" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="D234" s="22"/>
-    </row>
-    <row r="235" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A235" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A236" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="45" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A237" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="11.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A238" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D238" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="11.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A239" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D239" s="22"/>
-    </row>
-    <row r="240" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A240" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" s="8" customFormat="1" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A241" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B241" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C241" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" s="2" customFormat="1" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A243" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A244" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A245" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="33.75" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A246" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="33.75" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A247" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A248" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A249" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" s="10" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="B250" s="25"/>
-      <c r="C250" s="25"/>
-      <c r="D250" s="25"/>
-    </row>
-    <row r="251" spans="1:4" s="7" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A251" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B251" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D251" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A252" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B252" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D252" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" s="7" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A253" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B253" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D253" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" s="7" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="B254" s="25"/>
-      <c r="C254" s="25"/>
-      <c r="D254" s="25"/>
-    </row>
-    <row r="255" spans="1:4" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A255" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A256" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B256" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D256" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A257" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="B257" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" s="7" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="B258" s="25"/>
-      <c r="C258" s="25"/>
-      <c r="D258" s="25"/>
-    </row>
-    <row r="259" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A259" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D259" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A260" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B260" s="3" t="s">
+      <c r="D257" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E257" s="15"/>
+      <c r="F257" s="15"/>
+      <c r="G257" s="15"/>
+      <c r="H257" s="15"/>
+      <c r="I257" s="15"/>
+      <c r="J257" s="15"/>
+      <c r="K257" s="15"/>
+      <c r="L257" s="15"/>
+      <c r="M257" s="15"/>
+    </row>
+    <row r="258" spans="1:13" s="7" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B258" s="24"/>
+      <c r="C258" s="24"/>
+      <c r="D258" s="24"/>
+      <c r="E258" s="15"/>
+      <c r="F258" s="15"/>
+      <c r="G258" s="15"/>
+      <c r="H258" s="15"/>
+      <c r="I258" s="15"/>
+      <c r="J258" s="15"/>
+      <c r="K258" s="15"/>
+      <c r="L258" s="15"/>
+      <c r="M258" s="15"/>
+    </row>
+    <row r="259" spans="1:13" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A259" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E259" s="15"/>
+      <c r="F259" s="15"/>
+      <c r="G259" s="15"/>
+      <c r="H259" s="15"/>
+      <c r="I259" s="15"/>
+      <c r="J259" s="15"/>
+      <c r="K259" s="15"/>
+      <c r="L259" s="15"/>
+      <c r="M259" s="15"/>
+    </row>
+    <row r="260" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A260" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B260" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D260" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A261" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A262" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A263" s="3" t="s">
-        <v>186</v>
+      <c r="D260" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E260" s="15"/>
+      <c r="F260" s="15"/>
+      <c r="G260" s="15"/>
+      <c r="H260" s="15"/>
+      <c r="I260" s="15"/>
+      <c r="J260" s="15"/>
+      <c r="K260" s="15"/>
+      <c r="L260" s="15"/>
+      <c r="M260" s="15"/>
+    </row>
+    <row r="261" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A261" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E261" s="15"/>
+      <c r="F261" s="15"/>
+      <c r="G261" s="15"/>
+      <c r="H261" s="15"/>
+      <c r="I261" s="15"/>
+      <c r="J261" s="15"/>
+      <c r="K261" s="15"/>
+      <c r="L261" s="15"/>
+      <c r="M261" s="15"/>
+    </row>
+    <row r="262" spans="1:13" s="7" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="B262" s="24"/>
+      <c r="C262" s="24"/>
+      <c r="D262" s="24"/>
+      <c r="E262" s="15"/>
+      <c r="F262" s="15"/>
+      <c r="G262" s="15"/>
+      <c r="H262" s="15"/>
+      <c r="I262" s="15"/>
+      <c r="J262" s="15"/>
+      <c r="K262" s="15"/>
+      <c r="L262" s="15"/>
+      <c r="M262" s="15"/>
+    </row>
+    <row r="263" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A263" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A264" s="3" t="s">
+      <c r="D263" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A264" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A265" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A266" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A267" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A268" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A269" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A270" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" s="7" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="B271" s="24"/>
+      <c r="C271" s="24"/>
+      <c r="D271" s="24"/>
+      <c r="E271" s="15"/>
+      <c r="F271" s="15"/>
+      <c r="G271" s="15"/>
+      <c r="H271" s="15"/>
+      <c r="I271" s="15"/>
+      <c r="J271" s="15"/>
+      <c r="K271" s="15"/>
+      <c r="L271" s="15"/>
+      <c r="M271" s="15"/>
+    </row>
+    <row r="272" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A272" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A273" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A274" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B274" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A275" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B275" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A265" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="B265" s="3" t="s">
+    <row r="276" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A276" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B276" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C265" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A266" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="B266" s="3" t="s">
+    </row>
+    <row r="277" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A277" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B277" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D266" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" s="7" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="B267" s="25"/>
-      <c r="C267" s="25"/>
-      <c r="D267" s="25"/>
-    </row>
-    <row r="268" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A268" s="3" t="s">
+    </row>
+    <row r="278" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A278" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E278" s="15"/>
+      <c r="F278" s="15"/>
+      <c r="G278" s="15"/>
+      <c r="H278" s="15"/>
+      <c r="I278" s="15"/>
+      <c r="J278" s="15"/>
+      <c r="K278" s="15"/>
+      <c r="L278" s="15"/>
+      <c r="M278" s="15"/>
+    </row>
+    <row r="279" spans="1:13" s="8" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A279" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B279" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E279" s="15"/>
+      <c r="F279" s="15"/>
+      <c r="G279" s="15"/>
+      <c r="H279" s="15"/>
+      <c r="I279" s="15"/>
+      <c r="J279" s="15"/>
+      <c r="K279" s="15"/>
+      <c r="L279" s="15"/>
+      <c r="M279" s="15"/>
+    </row>
+    <row r="280" spans="1:13" s="8" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A280" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C280" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E280" s="15"/>
+      <c r="F280" s="15"/>
+      <c r="G280" s="15"/>
+      <c r="H280" s="15"/>
+      <c r="I280" s="15"/>
+      <c r="J280" s="15"/>
+      <c r="K280" s="15"/>
+      <c r="L280" s="15"/>
+      <c r="M280" s="15"/>
+    </row>
+    <row r="281" spans="1:13" s="7" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A281" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E281" s="15"/>
+      <c r="F281" s="15"/>
+      <c r="G281" s="15"/>
+      <c r="H281" s="15"/>
+      <c r="I281" s="15"/>
+      <c r="J281" s="15"/>
+      <c r="K281" s="15"/>
+      <c r="L281" s="15"/>
+      <c r="M281" s="15"/>
+    </row>
+    <row r="282" spans="1:13" s="7" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A282" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E282" s="15"/>
+      <c r="F282" s="15"/>
+      <c r="G282" s="15"/>
+      <c r="H282" s="15"/>
+      <c r="I282" s="15"/>
+      <c r="J282" s="15"/>
+      <c r="K282" s="15"/>
+      <c r="L282" s="15"/>
+      <c r="M282" s="15"/>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A283" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A284" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="B284" s="24"/>
+      <c r="C284" s="24"/>
+      <c r="D284" s="24"/>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A285" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B285" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D268" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A269" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A270" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A271" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B271" s="3" t="s">
+      <c r="C285" s="14"/>
+      <c r="D285" s="14"/>
+    </row>
+    <row r="286" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="D286" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="E286" s="15"/>
+      <c r="F286" s="15"/>
+      <c r="G286" s="15"/>
+      <c r="H286" s="15"/>
+      <c r="I286" s="15"/>
+      <c r="J286" s="15"/>
+      <c r="K286" s="15"/>
+      <c r="L286" s="15"/>
+      <c r="M286" s="15"/>
+    </row>
+    <row r="287" spans="1:13" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A287" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B287" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C287" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D287" s="14"/>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A288" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B288" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A272" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B272" s="3" t="s">
+      <c r="C288" s="14"/>
+      <c r="D288" s="14"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B289" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A273" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B273" s="3" t="s">
+      <c r="C289" s="14"/>
+      <c r="D289" s="14"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B290" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A274" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B274" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" s="8" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A275" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B275" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C275" s="8" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" s="8" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A276" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B276" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C276" s="8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" s="7" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A277" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B277" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" s="7" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A278" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B278" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="C290" s="14"/>
+      <c r="D290" s="14"/>
+    </row>
+    <row r="291" spans="1:4" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A291" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="B291" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C291" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D291" s="14"/>
+    </row>
+    <row r="292" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A292" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B292" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C292" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="D292" s="14"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B293" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" s="14"/>
+      <c r="D293" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="26">
+    <mergeCell ref="A284:D284"/>
+    <mergeCell ref="A258:D258"/>
+    <mergeCell ref="A262:D262"/>
+    <mergeCell ref="A271:D271"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="D241:D242"/>
     <mergeCell ref="A254:D254"/>
-    <mergeCell ref="A258:D258"/>
-    <mergeCell ref="A267:D267"/>
-    <mergeCell ref="A206:D206"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="A250:D250"/>
-    <mergeCell ref="D227:D229"/>
-    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="D237:D238"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A132:D132"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A62:D62"/>
     <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A88:D88"/>
     <mergeCell ref="A182:D182"/>
     <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A210:D210"/>
-    <mergeCell ref="A168:D168"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A83:D83"/>
     <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="D157:D160"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="D158:D161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CITS-WebService/Documentation/APEXA CITS Documentation.xlsx
+++ b/CITS-WebService/Documentation/APEXA CITS Documentation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="456">
   <si>
     <t>ACORD Hierarchy</t>
   </si>
@@ -929,9 +929,6 @@
     <t>TXLifeResponse/OLifE/Holding[N]/Loan/@FinancialInstitutionPartyID</t>
   </si>
   <si>
-    <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/TermDate</t>
-  </si>
-  <si>
     <t>Date the contract was terminated.  Not provided unless the contract was terminated.</t>
   </si>
   <si>
@@ -1196,14 +1193,6 @@
   </si>
   <si>
     <t>Will be the APEXA EntityId prefixed with the letters "CON"</t>
-  </si>
-  <si>
-    <t>Points to the AGA MGA or Carrier that this contract is with.  In the case of multi-level contracts it is the highest tier (Carrier &gt; MGA &gt; AGA)
-Will be the APEXA EntityId prefixed with the letters "P"</t>
-  </si>
-  <si>
-    <t>Will be the APEXA EntityId prefixed with the letters "P"
-References the contract being transferred.</t>
   </si>
   <si>
     <t>Will be the APEXA Contract EntityId prefixed with the letters "REF"</t>
@@ -1489,9 +1478,6 @@
 OLI_REL_EMPLOYEE - 6 - Employee</t>
   </si>
   <si>
-    <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/TransferInfo/CarrierAppointmentID</t>
-  </si>
-  <si>
     <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/RequirementInfo/Attachment/FileName</t>
   </si>
   <si>
@@ -1515,7 +1501,36 @@
     <t>Will be the APEXA AddressID prefixed with "ADR"</t>
   </si>
   <si>
-    <t>Will be the APEXA EntityId prefixed with the letters "CONSD"</t>
+    <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/ExpDate</t>
+  </si>
+  <si>
+    <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/AssocCarrierApptInfo/@PartyID</t>
+  </si>
+  <si>
+    <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/AssocCarrierApptInfo/CompanyProducerID</t>
+  </si>
+  <si>
+    <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/AssocCarrierApptInfo/CarrierApptStatus</t>
+  </si>
+  <si>
+    <t>Represents the state of the associated contract.
+As far as APEXA is concerned the CITS Transfer Out status is used to represent that a contract has been transfered to either another company OR another contract within the same company.
+APEXA will only have the notion of a "Downgraded" contract which can be interpretted by the corresponding carrier/mga as per their internal business rules (Included here as 7 - Servicing Only)</t>
+  </si>
+  <si>
+    <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/AssocCarrierApptInfo/@CarrierAppointmentID</t>
+  </si>
+  <si>
+    <t>Will be the APEXA EntityId prefixed with the letters "CON"
+References the contract being transferred.</t>
+  </si>
+  <si>
+    <t>Points to the AGA ,MGA or Carrier that this contract is with.
+Will be the APEXA EntityId prefixed with the letters "P"</t>
+  </si>
+  <si>
+    <t>Points to the AGA, MGA or Carrier that this contract is with.  In the case of multi-level contracts it is the highest tier (Carrier &gt; MGA &gt; AGA)
+Will be the APEXA EntityId prefixed with the letters "P"</t>
   </si>
 </sst>
 </file>
@@ -1979,7 +1994,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2026,6 +2041,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2047,13 +2068,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2435,7 +2456,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
@@ -2454,60 +2475,60 @@
         <v>89</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>179</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>335</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
@@ -2519,7 +2540,7 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2863,7 +2884,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
@@ -2911,12 +2932,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -2926,7 +2947,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="11" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
@@ -2937,7 +2958,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
@@ -2953,13 +2974,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2970,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -2986,10 +3007,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M293"/>
+  <dimension ref="A1:M296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
@@ -3035,7 +3056,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
@@ -3092,12 +3113,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -3118,7 +3139,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3150,8 +3171,8 @@
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>409</v>
+      <c r="D13" s="24" t="s">
+        <v>406</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -3171,9 +3192,9 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D14" s="22"/>
+        <v>405</v>
+      </c>
+      <c r="D14" s="24"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -3191,7 +3212,7 @@
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="24" t="s">
         <v>181</v>
       </c>
       <c r="E15" s="15"/>
@@ -3211,7 +3232,7 @@
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -3232,7 +3253,7 @@
       <c r="C17" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -3310,7 +3331,7 @@
         <v>104</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -3348,7 +3369,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3364,10 +3385,10 @@
     </row>
     <row r="31" spans="1:13" s="14" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -3416,7 +3437,7 @@
     </row>
     <row r="36" spans="1:13" ht="146.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>55</v>
@@ -3427,13 +3448,13 @@
     </row>
     <row r="37" spans="1:13" s="14" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
@@ -3478,24 +3499,24 @@
     </row>
     <row r="40" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="14" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
@@ -3523,7 +3544,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -3544,7 +3565,7 @@
     </row>
     <row r="46" spans="1:13" s="14" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>3</v>
@@ -3583,7 +3604,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -3596,13 +3617,13 @@
     </row>
     <row r="51" spans="1:13" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
@@ -3616,13 +3637,13 @@
     </row>
     <row r="52" spans="1:13" s="8" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
@@ -3636,7 +3657,7 @@
     </row>
     <row r="53" spans="1:13" s="8" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>253</v>
@@ -3656,13 +3677,13 @@
     </row>
     <row r="54" spans="1:13" s="10" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
@@ -3676,13 +3697,13 @@
     </row>
     <row r="55" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
@@ -3696,7 +3717,7 @@
     </row>
     <row r="56" spans="1:13" s="14" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>3</v>
@@ -3732,7 +3753,7 @@
     </row>
     <row r="59" spans="1:13" s="14" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>23</v>
@@ -3776,12 +3797,12 @@
       <c r="M61" s="15"/>
     </row>
     <row r="62" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
     </row>
     <row r="63" spans="1:13" ht="33.75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
@@ -3807,13 +3828,13 @@
     </row>
     <row r="65" spans="1:13" s="14" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="66" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -3828,12 +3849,12 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
     </row>
     <row r="68" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
@@ -3843,18 +3864,18 @@
         <v>10</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="69" spans="1:13" s="11" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
@@ -3874,7 +3895,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="71" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -3885,18 +3906,18 @@
         <v>3</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" spans="1:13" s="14" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="146.25" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -3924,7 +3945,7 @@
         <v>54</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="75" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -3935,18 +3956,18 @@
         <v>12</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="76" spans="1:13" s="14" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
@@ -3959,12 +3980,12 @@
       <c r="M76" s="15"/>
     </row>
     <row r="77" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
     </row>
     <row r="78" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
@@ -3988,7 +4009,7 @@
         <v>75</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4010,7 +4031,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="82" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4021,16 +4042,16 @@
         <v>12</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
     </row>
     <row r="84" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
@@ -4068,7 +4089,7 @@
         <v>10</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="87" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4083,12 +4104,12 @@
       </c>
     </row>
     <row r="88" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
     </row>
     <row r="89" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
@@ -4143,12 +4164,12 @@
       </c>
     </row>
     <row r="94" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
@@ -4169,7 +4190,7 @@
         <v>11</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="97" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4256,7 +4277,7 @@
         <v>11</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4267,7 +4288,7 @@
         <v>23</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4278,7 +4299,7 @@
         <v>23</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="108" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4315,12 +4336,12 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
     </row>
     <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
@@ -4368,7 +4389,7 @@
         <v>3</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="117" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4379,7 +4400,7 @@
         <v>3</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="118" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4401,7 +4422,7 @@
         <v>65</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="120" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4412,7 +4433,7 @@
         <v>12</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="121" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4423,7 +4444,7 @@
         <v>12</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="122" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4434,7 +4455,7 @@
         <v>12</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="45" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4448,7 +4469,7 @@
         <v>72</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="124" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4459,7 +4480,7 @@
         <v>10</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="125" spans="1:13" s="2" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4470,7 +4491,7 @@
         <v>69</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E125" s="15"/>
       <c r="F125" s="15"/>
@@ -4523,7 +4544,7 @@
     </row>
     <row r="129" spans="1:13" s="14" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>3</v>
@@ -4580,12 +4601,12 @@
       </c>
     </row>
     <row r="134" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="16" t="s">
+      <c r="A134" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B134" s="17"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
     </row>
     <row r="135" spans="1:13" s="2" customFormat="1" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
@@ -4615,7 +4636,7 @@
         <v>11</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E136" s="15"/>
       <c r="F136" s="15"/>
@@ -4649,7 +4670,7 @@
         <v>60</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="139" spans="1:13" s="11" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4660,7 +4681,7 @@
         <v>59</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E139" s="15"/>
       <c r="F139" s="15"/>
@@ -4674,16 +4695,16 @@
     </row>
     <row r="140" spans="1:13" s="11" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B140" s="11" t="s">
         <v>250</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E140" s="15"/>
       <c r="F140" s="15"/>
@@ -4697,13 +4718,13 @@
     </row>
     <row r="141" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>250</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="142" spans="1:13" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4734,7 +4755,7 @@
         <v>11</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E143" s="15"/>
       <c r="F143" s="15"/>
@@ -4754,7 +4775,7 @@
         <v>23</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E144" s="15"/>
       <c r="F144" s="15"/>
@@ -4774,7 +4795,7 @@
         <v>23</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E145" s="15"/>
       <c r="F145" s="15"/>
@@ -4847,12 +4868,12 @@
       <c r="M148" s="15"/>
     </row>
     <row r="149" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A149" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="B149" s="17"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
+      <c r="A149" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="B149" s="19"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
     </row>
     <row r="150" spans="1:13" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
@@ -4862,7 +4883,7 @@
         <v>10</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="151" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4912,18 +4933,18 @@
         <v>23</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="155" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A155" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="C155" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="E155" s="15"/>
       <c r="F155" s="15"/>
@@ -4937,13 +4958,13 @@
     </row>
     <row r="156" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E156" s="15"/>
       <c r="F156" s="15"/>
@@ -4963,7 +4984,7 @@
         <v>65</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="158" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4973,7 +4994,7 @@
       <c r="B158" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D158" s="20" t="s">
+      <c r="D158" s="22" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4984,7 +5005,7 @@
       <c r="B159" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D159" s="21"/>
+      <c r="D159" s="23"/>
     </row>
     <row r="160" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
@@ -4996,7 +5017,7 @@
       <c r="C160" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D160" s="21"/>
+      <c r="D160" s="23"/>
     </row>
     <row r="161" spans="1:13" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A161" s="15" t="s">
@@ -5005,7 +5026,7 @@
       <c r="B161" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D161" s="21"/>
+      <c r="D161" s="23"/>
     </row>
     <row r="162" spans="1:13" s="6" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
@@ -5035,7 +5056,7 @@
         <v>11</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E163" s="15"/>
       <c r="F163" s="15"/>
@@ -5075,7 +5096,7 @@
         <v>23</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E165" s="15"/>
       <c r="F165" s="15"/>
@@ -5151,12 +5172,12 @@
       <c r="M168" s="15"/>
     </row>
     <row r="169" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A169" s="16" t="s">
+      <c r="A169" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B169" s="17"/>
-      <c r="C169" s="17"/>
-      <c r="D169" s="17"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
     </row>
     <row r="170" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
@@ -5177,7 +5198,7 @@
         <v>11</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="172" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5218,7 +5239,7 @@
         <v>11</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5229,7 +5250,7 @@
         <v>23</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5240,7 +5261,7 @@
         <v>23</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="178" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5277,20 +5298,20 @@
       </c>
     </row>
     <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A181" s="16" t="s">
+      <c r="A181" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B181" s="17"/>
-      <c r="C181" s="17"/>
-      <c r="D181" s="17"/>
+      <c r="B181" s="19"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
     </row>
     <row r="182" spans="1:4" s="14" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="18" t="s">
+      <c r="A182" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="B182" s="19"/>
-      <c r="C182" s="19"/>
-      <c r="D182" s="19"/>
+      <c r="B182" s="21"/>
+      <c r="C182" s="21"/>
+      <c r="D182" s="21"/>
     </row>
     <row r="183" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
@@ -5311,7 +5332,7 @@
         <v>11</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -5322,7 +5343,7 @@
         <v>23</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -5333,7 +5354,7 @@
         <v>23</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="187" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -5366,7 +5387,7 @@
         <v>35</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="190" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -5381,12 +5402,12 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A191" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="B191" s="17"/>
-      <c r="C191" s="17"/>
-      <c r="D191" s="17"/>
+      <c r="A191" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="B191" s="19"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="19"/>
     </row>
     <row r="192" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
@@ -5407,7 +5428,7 @@
         <v>11</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="194" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5418,7 +5439,7 @@
         <v>23</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5429,7 +5450,7 @@
         <v>23</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="196" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5462,7 +5483,7 @@
         <v>35</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="199" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5495,7 +5516,7 @@
         <v>11</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="202" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5506,7 +5527,7 @@
         <v>7</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="203" spans="1:13" s="11" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5528,7 +5549,7 @@
     </row>
     <row r="204" spans="1:13" s="11" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B204" s="11" t="s">
         <v>10</v>
@@ -5545,19 +5566,19 @@
     </row>
     <row r="205" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:13" s="7" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="B206" s="17"/>
-      <c r="C206" s="17"/>
-      <c r="D206" s="17"/>
+      <c r="A206" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B206" s="19"/>
+      <c r="C206" s="19"/>
+      <c r="D206" s="19"/>
       <c r="E206" s="15"/>
       <c r="F206" s="15"/>
       <c r="G206" s="15"/>
@@ -5573,7 +5594,7 @@
         <v>201</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E207" s="15"/>
       <c r="F207" s="15"/>
@@ -5593,7 +5614,7 @@
         <v>11</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E208" s="15"/>
       <c r="F208" s="15"/>
@@ -5613,7 +5634,7 @@
         <v>3</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E209" s="15"/>
       <c r="F209" s="15"/>
@@ -5666,12 +5687,12 @@
       <c r="M211" s="15"/>
     </row>
     <row r="212" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A212" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="B212" s="17"/>
-      <c r="C212" s="17"/>
-      <c r="D212" s="17"/>
+      <c r="A212" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B212" s="19"/>
+      <c r="C212" s="19"/>
+      <c r="D212" s="19"/>
     </row>
     <row r="213" spans="1:13" s="8" customFormat="1" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A213" s="15" t="s">
@@ -5698,7 +5719,7 @@
         <v>231</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E214" s="15"/>
       <c r="F214" s="15"/>
@@ -5715,7 +5736,7 @@
         <v>263</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>358</v>
+        <v>455</v>
       </c>
       <c r="E215" s="15"/>
       <c r="F215" s="15"/>
@@ -5732,7 +5753,7 @@
         <v>264</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="217" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5748,223 +5769,211 @@
     </row>
     <row r="218" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A218" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B218" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D218" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" s="15" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A219" s="15" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A219" s="15" t="s">
-        <v>443</v>
+      <c r="B219" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" s="15" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" s="15" customFormat="1" ht="67.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A220" s="15" t="s">
-        <v>310</v>
+        <v>232</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>23</v>
+        <v>185</v>
+      </c>
+      <c r="C220" s="15" t="s">
+        <v>418</v>
       </c>
       <c r="D220" s="15" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" s="15" customFormat="1" ht="67.5" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A221" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C221" s="15" t="s">
-        <v>421</v>
+        <v>12</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>422</v>
+        <v>85</v>
       </c>
     </row>
     <row r="222" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
-        <v>233</v>
+        <v>447</v>
       </c>
       <c r="B222" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D222" s="15" t="s">
-        <v>85</v>
+        <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A223" s="15" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" s="15" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A224" s="15" t="s">
         <v>305</v>
       </c>
       <c r="B224" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D224" s="15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" s="17" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A225" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="B225" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D225" s="16" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" s="17" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A226" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="B226" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D226" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" s="17" customFormat="1" ht="67.5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A227" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="B227" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C227" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="D227" s="17" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" s="17" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A228" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="B228" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D228" s="17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A229" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B229" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D224" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" s="15" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A225" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="B225" s="15" t="s">
+      <c r="D229" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" s="15" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A230" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B230" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D225" s="15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A226" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B226" s="15" t="s">
+      <c r="D230" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A231" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B231" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D226" s="15" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" s="15" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A227" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B227" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D227" s="15" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A228" s="15" t="s">
+      <c r="D231" s="15" t="s">
         <v>311</v>
-      </c>
-      <c r="B228" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D228" s="15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" s="15" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A229" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="B229" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D229" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A230" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="B230" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D230" s="15" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" s="15" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A231" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="B231" s="15" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:13" s="15" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A232" s="15" t="s">
-        <v>413</v>
+        <v>319</v>
       </c>
       <c r="B232" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D232" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A233" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="B233" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D233" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" s="15" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A234" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" s="15" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A235" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="B235" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C232" s="15" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" s="2" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A233" s="15" t="s">
+      <c r="C235" s="15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" s="2" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A236" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B236" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E233" s="15"/>
-      <c r="F233" s="15"/>
-      <c r="G233" s="15"/>
-      <c r="H233" s="15"/>
-      <c r="I233" s="15"/>
-      <c r="J233" s="15"/>
-      <c r="K233" s="15"/>
-      <c r="L233" s="15"/>
-      <c r="M233" s="15"/>
-    </row>
-    <row r="234" spans="1:13" s="2" customFormat="1" ht="33.75" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A234" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E234" s="15"/>
-      <c r="F234" s="15"/>
-      <c r="G234" s="15"/>
-      <c r="H234" s="15"/>
-      <c r="I234" s="15"/>
-      <c r="J234" s="15"/>
-      <c r="K234" s="15"/>
-      <c r="L234" s="15"/>
-      <c r="M234" s="15"/>
-    </row>
-    <row r="235" spans="1:13" s="15" customFormat="1" ht="33.75" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A235" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="B235" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D235" s="15" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" s="2" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A236" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="E236" s="15"/>
       <c r="F236" s="15"/>
@@ -5976,15 +5985,15 @@
       <c r="L236" s="15"/>
       <c r="M236" s="15"/>
     </row>
-    <row r="237" spans="1:13" s="13" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" s="2" customFormat="1" ht="33.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A237" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="B237" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D237" s="22" t="s">
-        <v>419</v>
+        <v>248</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="E237" s="15"/>
       <c r="F237" s="15"/>
@@ -5996,145 +6005,160 @@
       <c r="L237" s="15"/>
       <c r="M237" s="15"/>
     </row>
-    <row r="238" spans="1:13" s="13" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" s="15" customFormat="1" ht="33.75" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A238" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B238" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D238" s="15" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" s="2" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A239" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E239" s="15"/>
+      <c r="F239" s="15"/>
+      <c r="G239" s="15"/>
+      <c r="H239" s="15"/>
+      <c r="I239" s="15"/>
+      <c r="J239" s="15"/>
+      <c r="K239" s="15"/>
+      <c r="L239" s="15"/>
+      <c r="M239" s="15"/>
+    </row>
+    <row r="240" spans="1:13" s="13" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A240" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B240" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D240" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="B238" s="13" t="s">
+      <c r="E240" s="15"/>
+      <c r="F240" s="15"/>
+      <c r="G240" s="15"/>
+      <c r="H240" s="15"/>
+      <c r="I240" s="15"/>
+      <c r="J240" s="15"/>
+      <c r="K240" s="15"/>
+      <c r="L240" s="15"/>
+      <c r="M240" s="15"/>
+    </row>
+    <row r="241" spans="1:13" s="13" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A241" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="B241" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="C241" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D241" s="23"/>
+      <c r="E241" s="15"/>
+      <c r="F241" s="15"/>
+      <c r="G241" s="15"/>
+      <c r="H241" s="15"/>
+      <c r="I241" s="15"/>
+      <c r="J241" s="15"/>
+      <c r="K241" s="15"/>
+      <c r="L241" s="15"/>
+      <c r="M241" s="15"/>
+    </row>
+    <row r="242" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A242" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" ht="45" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A243" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D243" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C238" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="D238" s="21"/>
-      <c r="E238" s="15"/>
-      <c r="F238" s="15"/>
-      <c r="G238" s="15"/>
-      <c r="H238" s="15"/>
-      <c r="I238" s="15"/>
-      <c r="J238" s="15"/>
-      <c r="K238" s="15"/>
-      <c r="L238" s="15"/>
-      <c r="M238" s="15"/>
-    </row>
-    <row r="239" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A239" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="B239" s="3" t="s">
+    </row>
+    <row r="244" spans="1:13" ht="11.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A244" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" ht="11.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A245" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245" s="23"/>
+    </row>
+    <row r="246" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A246" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B246" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D239" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" ht="45" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A240" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D240" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" ht="11.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A241" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D241" s="20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" ht="11.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A242" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D242" s="21"/>
-    </row>
-    <row r="243" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A243" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" s="8" customFormat="1" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A244" s="15" t="s">
+    </row>
+    <row r="247" spans="1:13" s="8" customFormat="1" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A247" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="B244" s="8" t="s">
+      <c r="B247" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C244" s="8" t="s">
+      <c r="C247" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E244" s="15"/>
-      <c r="F244" s="15"/>
-      <c r="G244" s="15"/>
-      <c r="H244" s="15"/>
-      <c r="I244" s="15"/>
-      <c r="J244" s="15"/>
-      <c r="K244" s="15"/>
-      <c r="L244" s="15"/>
-      <c r="M244" s="15"/>
-    </row>
-    <row r="245" spans="1:13" s="2" customFormat="1" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A245" s="15" t="s">
+      <c r="E247" s="15"/>
+      <c r="F247" s="15"/>
+      <c r="G247" s="15"/>
+      <c r="H247" s="15"/>
+      <c r="I247" s="15"/>
+      <c r="J247" s="15"/>
+      <c r="K247" s="15"/>
+      <c r="L247" s="15"/>
+      <c r="M247" s="15"/>
+    </row>
+    <row r="248" spans="1:13" s="2" customFormat="1" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A248" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B248" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D245" s="2" t="s">
+      <c r="C248" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D248" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E245" s="15"/>
-      <c r="F245" s="15"/>
-      <c r="G245" s="15"/>
-      <c r="H245" s="15"/>
-      <c r="I245" s="15"/>
-      <c r="J245" s="15"/>
-      <c r="K245" s="15"/>
-      <c r="L245" s="15"/>
-      <c r="M245" s="15"/>
-    </row>
-    <row r="246" spans="1:13" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A246" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A247" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" s="14" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A248" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="B248" s="14" t="s">
-        <v>3</v>
       </c>
       <c r="E248" s="15"/>
       <c r="F248" s="15"/>
@@ -6146,122 +6170,98 @@
       <c r="L248" s="15"/>
       <c r="M248" s="15"/>
     </row>
-    <row r="249" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A249" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A250" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" s="14" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A251" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B251" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E251" s="15"/>
+      <c r="F251" s="15"/>
+      <c r="G251" s="15"/>
+      <c r="H251" s="15"/>
+      <c r="I251" s="15"/>
+      <c r="J251" s="15"/>
+      <c r="K251" s="15"/>
+      <c r="L251" s="15"/>
+      <c r="M251" s="15"/>
+    </row>
+    <row r="252" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A252" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B252" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D249" s="3" t="s">
+      <c r="D252" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="33.75" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A250" s="15" t="s">
+    <row r="253" spans="1:13" ht="33.75" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A253" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B253" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D250" s="3" t="s">
+      <c r="D253" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" ht="33.75" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A254" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D254" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="33.75" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A251" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A252" s="15" t="s">
+    <row r="255" spans="1:13" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A255" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B255" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A253" s="15" t="s">
+    <row r="256" spans="1:13" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A256" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B256" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:13" s="9" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="B254" s="24"/>
-      <c r="C254" s="24"/>
-      <c r="D254" s="24"/>
-      <c r="E254" s="15"/>
-      <c r="F254" s="15"/>
-      <c r="G254" s="15"/>
-      <c r="H254" s="15"/>
-      <c r="I254" s="15"/>
-      <c r="J254" s="15"/>
-      <c r="K254" s="15"/>
-      <c r="L254" s="15"/>
-      <c r="M254" s="15"/>
-    </row>
-    <row r="255" spans="1:13" s="7" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A255" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="B255" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D255" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E255" s="15"/>
-      <c r="F255" s="15"/>
-      <c r="G255" s="15"/>
-      <c r="H255" s="15"/>
-      <c r="I255" s="15"/>
-      <c r="J255" s="15"/>
-      <c r="K255" s="15"/>
-      <c r="L255" s="15"/>
-      <c r="M255" s="15"/>
-    </row>
-    <row r="256" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A256" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="B256" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D256" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="E256" s="15"/>
-      <c r="F256" s="15"/>
-      <c r="G256" s="15"/>
-      <c r="H256" s="15"/>
-      <c r="I256" s="15"/>
-      <c r="J256" s="15"/>
-      <c r="K256" s="15"/>
-      <c r="L256" s="15"/>
-      <c r="M256" s="15"/>
-    </row>
-    <row r="257" spans="1:13" s="7" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A257" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="B257" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D257" s="7" t="s">
-        <v>324</v>
-      </c>
+    <row r="257" spans="1:13" s="9" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="B257" s="26"/>
+      <c r="C257" s="26"/>
+      <c r="D257" s="26"/>
       <c r="E257" s="15"/>
       <c r="F257" s="15"/>
       <c r="G257" s="15"/>
@@ -6272,13 +6272,16 @@
       <c r="L257" s="15"/>
       <c r="M257" s="15"/>
     </row>
-    <row r="258" spans="1:13" s="7" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="B258" s="24"/>
-      <c r="C258" s="24"/>
-      <c r="D258" s="24"/>
+    <row r="258" spans="1:13" s="7" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A258" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D258" s="7" t="s">
+        <v>324</v>
+      </c>
       <c r="E258" s="15"/>
       <c r="F258" s="15"/>
       <c r="G258" s="15"/>
@@ -6289,9 +6292,15 @@
       <c r="L258" s="15"/>
       <c r="M258" s="15"/>
     </row>
-    <row r="259" spans="1:13" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A259" s="14" t="s">
-        <v>201</v>
+        <v>321</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D259" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="E259" s="15"/>
       <c r="F259" s="15"/>
@@ -6303,15 +6312,15 @@
       <c r="L259" s="15"/>
       <c r="M259" s="15"/>
     </row>
-    <row r="260" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" s="7" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A260" s="14" t="s">
-        <v>141</v>
+        <v>322</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="E260" s="15"/>
       <c r="F260" s="15"/>
@@ -6323,13 +6332,13 @@
       <c r="L260" s="15"/>
       <c r="M260" s="15"/>
     </row>
-    <row r="261" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A261" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B261" s="7" t="s">
-        <v>3</v>
-      </c>
+    <row r="261" spans="1:13" s="7" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="B261" s="26"/>
+      <c r="C261" s="26"/>
+      <c r="D261" s="26"/>
       <c r="E261" s="15"/>
       <c r="F261" s="15"/>
       <c r="G261" s="15"/>
@@ -6340,13 +6349,10 @@
       <c r="L261" s="15"/>
       <c r="M261" s="15"/>
     </row>
-    <row r="262" spans="1:13" s="7" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="B262" s="24"/>
-      <c r="C262" s="24"/>
-      <c r="D262" s="24"/>
+    <row r="262" spans="1:13" s="7" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A262" s="14" t="s">
+        <v>201</v>
+      </c>
       <c r="E262" s="15"/>
       <c r="F262" s="15"/>
       <c r="G262" s="15"/>
@@ -6357,225 +6363,219 @@
       <c r="L262" s="15"/>
       <c r="M262" s="15"/>
     </row>
-    <row r="263" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D263" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E263" s="15"/>
+      <c r="F263" s="15"/>
+      <c r="G263" s="15"/>
+      <c r="H263" s="15"/>
+      <c r="I263" s="15"/>
+      <c r="J263" s="15"/>
+      <c r="K263" s="15"/>
+      <c r="L263" s="15"/>
+      <c r="M263" s="15"/>
+    </row>
+    <row r="264" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A264" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E264" s="15"/>
+      <c r="F264" s="15"/>
+      <c r="G264" s="15"/>
+      <c r="H264" s="15"/>
+      <c r="I264" s="15"/>
+      <c r="J264" s="15"/>
+      <c r="K264" s="15"/>
+      <c r="L264" s="15"/>
+      <c r="M264" s="15"/>
+    </row>
+    <row r="265" spans="1:13" s="7" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="B265" s="26"/>
+      <c r="C265" s="26"/>
+      <c r="D265" s="26"/>
+      <c r="E265" s="15"/>
+      <c r="F265" s="15"/>
+      <c r="G265" s="15"/>
+      <c r="H265" s="15"/>
+      <c r="I265" s="15"/>
+      <c r="J265" s="15"/>
+      <c r="K265" s="15"/>
+      <c r="L265" s="15"/>
+      <c r="M265" s="15"/>
+    </row>
+    <row r="266" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A266" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B266" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D263" s="3" t="s">
+      <c r="D266" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="264" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A264" s="14" t="s">
+    <row r="267" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A267" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B267" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D264" s="3" t="s">
+      <c r="D267" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A268" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A269" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A270" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A271" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A272" s="14" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A265" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A266" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A267" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A268" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B268" s="3" t="s">
+      <c r="B272" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A269" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A270" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" s="7" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="B271" s="24"/>
-      <c r="C271" s="24"/>
-      <c r="D271" s="24"/>
-      <c r="E271" s="15"/>
-      <c r="F271" s="15"/>
-      <c r="G271" s="15"/>
-      <c r="H271" s="15"/>
-      <c r="I271" s="15"/>
-      <c r="J271" s="15"/>
-      <c r="K271" s="15"/>
-      <c r="L271" s="15"/>
-      <c r="M271" s="15"/>
-    </row>
-    <row r="272" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A272" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>220</v>
+      <c r="C272" s="3" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="273" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A273" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" s="7" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="B274" s="26"/>
+      <c r="C274" s="26"/>
+      <c r="D274" s="26"/>
+      <c r="E274" s="15"/>
+      <c r="F274" s="15"/>
+      <c r="G274" s="15"/>
+      <c r="H274" s="15"/>
+      <c r="I274" s="15"/>
+      <c r="J274" s="15"/>
+      <c r="K274" s="15"/>
+      <c r="L274" s="15"/>
+      <c r="M274" s="15"/>
+    </row>
+    <row r="275" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A275" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A276" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B276" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D273" s="3" t="s">
+      <c r="D276" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="274" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A274" s="14" t="s">
+    <row r="277" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A277" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B277" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A275" s="14" t="s">
+    <row r="278" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A278" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B278" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A276" s="14" t="s">
+    <row r="279" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A279" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A280" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B280" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A277" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A278" s="14" t="s">
+    <row r="281" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A281" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B278" s="7" t="s">
+      <c r="B281" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="E278" s="15"/>
-      <c r="F278" s="15"/>
-      <c r="G278" s="15"/>
-      <c r="H278" s="15"/>
-      <c r="I278" s="15"/>
-      <c r="J278" s="15"/>
-      <c r="K278" s="15"/>
-      <c r="L278" s="15"/>
-      <c r="M278" s="15"/>
-    </row>
-    <row r="279" spans="1:13" s="8" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A279" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B279" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C279" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="E279" s="15"/>
-      <c r="F279" s="15"/>
-      <c r="G279" s="15"/>
-      <c r="H279" s="15"/>
-      <c r="I279" s="15"/>
-      <c r="J279" s="15"/>
-      <c r="K279" s="15"/>
-      <c r="L279" s="15"/>
-      <c r="M279" s="15"/>
-    </row>
-    <row r="280" spans="1:13" s="8" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A280" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="B280" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C280" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E280" s="15"/>
-      <c r="F280" s="15"/>
-      <c r="G280" s="15"/>
-      <c r="H280" s="15"/>
-      <c r="I280" s="15"/>
-      <c r="J280" s="15"/>
-      <c r="K280" s="15"/>
-      <c r="L280" s="15"/>
-      <c r="M280" s="15"/>
-    </row>
-    <row r="281" spans="1:13" s="7" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A281" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B281" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C281" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="E281" s="15"/>
       <c r="F281" s="15"/>
@@ -6587,12 +6587,15 @@
       <c r="L281" s="15"/>
       <c r="M281" s="15"/>
     </row>
-    <row r="282" spans="1:13" s="7" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" s="8" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A282" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B282" s="7" t="s">
-        <v>61</v>
+        <v>169</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C282" s="8" t="s">
+        <v>402</v>
       </c>
       <c r="E282" s="15"/>
       <c r="F282" s="15"/>
@@ -6604,118 +6607,141 @@
       <c r="L282" s="15"/>
       <c r="M282" s="15"/>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" s="8" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A283" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="B283" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E283" s="15"/>
+      <c r="F283" s="15"/>
+      <c r="G283" s="15"/>
+      <c r="H283" s="15"/>
+      <c r="I283" s="15"/>
+      <c r="J283" s="15"/>
+      <c r="K283" s="15"/>
+      <c r="L283" s="15"/>
+      <c r="M283" s="15"/>
+    </row>
+    <row r="284" spans="1:13" s="7" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A284" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B284" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E284" s="15"/>
+      <c r="F284" s="15"/>
+      <c r="G284" s="15"/>
+      <c r="H284" s="15"/>
+      <c r="I284" s="15"/>
+      <c r="J284" s="15"/>
+      <c r="K284" s="15"/>
+      <c r="L284" s="15"/>
+      <c r="M284" s="15"/>
+    </row>
+    <row r="285" spans="1:13" s="7" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A285" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B285" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E285" s="15"/>
+      <c r="F285" s="15"/>
+      <c r="G285" s="15"/>
+      <c r="H285" s="15"/>
+      <c r="I285" s="15"/>
+      <c r="J285" s="15"/>
+      <c r="K285" s="15"/>
+      <c r="L285" s="15"/>
+      <c r="M285" s="15"/>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A286" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B286" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A284" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="B284" s="24"/>
-      <c r="C284" s="24"/>
-      <c r="D284" s="24"/>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A285" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B285" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C285" s="14"/>
-      <c r="D285" s="14"/>
-    </row>
-    <row r="286" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="D286" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="E286" s="15"/>
-      <c r="F286" s="15"/>
-      <c r="G286" s="15"/>
-      <c r="H286" s="15"/>
-      <c r="I286" s="15"/>
-      <c r="J286" s="15"/>
-      <c r="K286" s="15"/>
-      <c r="L286" s="15"/>
-      <c r="M286" s="15"/>
-    </row>
-    <row r="287" spans="1:13" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A287" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B287" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C287" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D287" s="14"/>
+    <row r="287" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A287" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="B287" s="26"/>
+      <c r="C287" s="26"/>
+      <c r="D287" s="26"/>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C288" s="14"/>
       <c r="D288" s="14"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="D289" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="E289" s="15"/>
+      <c r="F289" s="15"/>
+      <c r="G289" s="15"/>
+      <c r="H289" s="15"/>
+      <c r="I289" s="15"/>
+      <c r="J289" s="15"/>
+      <c r="K289" s="15"/>
+      <c r="L289" s="15"/>
+      <c r="M289" s="15"/>
+    </row>
+    <row r="290" spans="1:13" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A290" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B290" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C290" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D290" s="14"/>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A291" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B291" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C291" s="14"/>
+      <c r="D291" s="14"/>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A292" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B289" s="14" t="s">
+      <c r="B292" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C289" s="14"/>
-      <c r="D289" s="14"/>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="14" t="s">
+      <c r="C292" s="14"/>
+      <c r="D292" s="14"/>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A293" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="B290" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C290" s="14"/>
-      <c r="D290" s="14"/>
-    </row>
-    <row r="291" spans="1:4" ht="146.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="B291" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C291" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D291" s="14"/>
-    </row>
-    <row r="292" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A292" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="B292" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C292" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="D292" s="14"/>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="B293" s="14" t="s">
         <v>3</v>
@@ -6723,16 +6749,50 @@
       <c r="C293" s="14"/>
       <c r="D293" s="14"/>
     </row>
+    <row r="294" spans="1:13" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A294" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B294" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C294" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D294" s="14"/>
+    </row>
+    <row r="295" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A295" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B295" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C295" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="D295" s="14"/>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A296" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B296" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C296" s="14"/>
+      <c r="D296" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A284:D284"/>
-    <mergeCell ref="A258:D258"/>
-    <mergeCell ref="A262:D262"/>
-    <mergeCell ref="A271:D271"/>
+    <mergeCell ref="A287:D287"/>
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A265:D265"/>
+    <mergeCell ref="A274:D274"/>
     <mergeCell ref="A206:D206"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="A254:D254"/>
-    <mergeCell ref="D237:D238"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="A257:D257"/>
+    <mergeCell ref="D240:D241"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A94:D94"/>

--- a/CITS-WebService/Documentation/APEXA CITS Documentation.xlsx
+++ b/CITS-WebService/Documentation/APEXA CITS Documentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12585" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="165" windowWidth="27795" windowHeight="12525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TXLife Request" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="457">
   <si>
     <t>ACORD Hierarchy</t>
   </si>
@@ -1076,11 +1076,6 @@
 Each of the AGA/MGA/Carrier parties involved in each contract will be listed.</t>
   </si>
   <si>
-    <t>A reference to the Carrier/MGA/AGA/Company that is signing the contract.
-Will be the APEXA partner entity id prefixed with "P" OR the APEXA contractor entity id prefixed with "C".
-References corresponding  TXLifeResponse/OLifE/Party[N]/@id</t>
-  </si>
-  <si>
     <t>A reference to the individual that signed the contract on behalf of the Signing party.
 Will be the APEXA user entity id prefixed with SIGN.
 References corresponding  TXLifeResponse/OLifE/Party[N]/@id</t>
@@ -1186,12 +1181,6 @@
 Matches the TXLifeResponse/OLifE/Party[N]/@id value above.</t>
   </si>
   <si>
-    <t>Will be the APEXA EntityId prefixed with the letter "O"</t>
-  </si>
-  <si>
-    <t>Will be the APEXA EntityId prefixed with the letters "P"</t>
-  </si>
-  <si>
     <t>Will be the APEXA EntityId prefixed with the letters "CON"</t>
   </si>
   <si>
@@ -1382,12 +1371,6 @@
   </si>
   <si>
     <t>Only included if the contract requires an initial sale to complete.</t>
-  </si>
-  <si>
-    <t>Will be the APEXA EntityId prefixed with the letters "P" for carriers/mgas/agas, "C" for organizations/advisors and "S" for shareholders
-Shareholder id will not be sent unless they have fulfilled the requirement.
-Advisor id will not be sent for company contracts unless they have fulfilled the requirement
-NOT included for the contract requirement itself</t>
   </si>
   <si>
     <t>OLI_PROSTAT_ACTIVE - 1 - Active
@@ -1487,18 +1470,10 @@
     <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/DistributionAgreementInfo[1]/@CheckMailingID</t>
   </si>
   <si>
-    <t>Banking Information - Only sent if advisor as indicated Cheque as the form of payment
-Will be the APEXA Address prefixed with the letters "ADR"
-Same as corresponding TXLifeResponse/OLifE/Address/@id</t>
-  </si>
-  <si>
     <t>Contract Cheque Mailing Address</t>
   </si>
   <si>
     <t>TXLifeResponse/OLifE/Party[1]/Address/@id</t>
-  </si>
-  <si>
-    <t>Will be the APEXA AddressID prefixed with "ADR"</t>
   </si>
   <si>
     <t>TXLifeResponse/OLifE/Party[1]/Producer/CarrierAppointment[N]/ExpDate</t>
@@ -1525,12 +1500,41 @@
 References the contract being transferred.</t>
   </si>
   <si>
-    <t>Points to the AGA ,MGA or Carrier that this contract is with.
-Will be the APEXA EntityId prefixed with the letters "P"</t>
-  </si>
-  <si>
     <t>Points to the AGA, MGA or Carrier that this contract is with.  In the case of multi-level contracts it is the highest tier (Carrier &gt; MGA &gt; AGA)
 Will be the APEXA EntityId prefixed with the letters "P"</t>
+  </si>
+  <si>
+    <t>Will be the APEXA EntityId prefixed with the letter "S"</t>
+  </si>
+  <si>
+    <t>Will be the APEXA EntityId prefixed with the letters "C"</t>
+  </si>
+  <si>
+    <t>Points to the AGA ,MGA or Carrier that this contract is with.
+Will be the APEXA EntityId prefixed with the letters "C"</t>
+  </si>
+  <si>
+    <t>Will be the APEXA EntityId prefixed with the letters "C" for carriers/mgas/agas/organizations/advisors and "S" for shareholders
+Shareholder id will not be sent unless they have fulfilled the requirement.
+Advisor id will not be sent for company contracts unless they have fulfilled the requirement
+NOT included for the contract requirement itself</t>
+  </si>
+  <si>
+    <t>A reference to the Carrier/MGA/AGA/Company that is signing the contract.
+Will be the APEXA entity id prefixed with "C".
+References corresponding  TXLifeResponse/OLifE/Party[N]/@id</t>
+  </si>
+  <si>
+    <t>Will be the APEXA AddressID prefixed with "ADRBUS" for Business Address, "ADRRES" for Residential Address and "ADR" for all other address types.</t>
+  </si>
+  <si>
+    <t>Banking Information - Only sent if advisor as indicated Cheque as the form of payment
+Will be the APEXA AddressID prefixed with "ADRBUS" for Business Address, "ADRRES" for Residential Address and "ADR" for all other address types.
+Same as corresponding TXLifeResponse/OLifE/Address/@id</t>
+  </si>
+  <si>
+    <t>Will be the APEXA EntityId prefixed with the letters "TRF"
+References the contract being transferred.</t>
   </si>
 </sst>
 </file>
@@ -1994,7 +1998,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2047,16 +2051,25 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2068,13 +2081,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2475,60 +2485,60 @@
         <v>89</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>179</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>334</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="12" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
@@ -2540,7 +2550,7 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2932,12 +2942,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -2974,7 +2984,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>10</v>
@@ -3006,19 +3016,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M296"/>
+  <dimension ref="A1:M297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+    <sheetView tabSelected="1" topLeftCell="B201" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="103.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="93.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="74.42578125" style="3" customWidth="1"/>
     <col min="5" max="13" width="9.140625" style="15"/>
     <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -3056,7 +3067,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
@@ -3113,12 +3124,12 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -3139,7 +3150,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3171,8 +3182,8 @@
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>406</v>
+      <c r="D13" s="27" t="s">
+        <v>403</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -3192,9 +3203,9 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D14" s="24"/>
+        <v>402</v>
+      </c>
+      <c r="D14" s="27"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -3212,7 +3223,7 @@
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="27" t="s">
         <v>181</v>
       </c>
       <c r="E15" s="15"/>
@@ -3232,7 +3243,7 @@
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -3253,7 +3264,7 @@
       <c r="C17" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D17" s="23"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -3331,7 +3342,7 @@
         <v>104</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -3369,7 +3380,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3383,12 +3394,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="14" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="14" customFormat="1" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -3437,7 +3448,7 @@
     </row>
     <row r="36" spans="1:13" ht="146.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>55</v>
@@ -3448,13 +3459,13 @@
     </row>
     <row r="37" spans="1:13" s="14" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
@@ -3499,24 +3510,24 @@
     </row>
     <row r="40" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="14" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
@@ -3544,7 +3555,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -3565,7 +3576,7 @@
     </row>
     <row r="46" spans="1:13" s="14" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>3</v>
@@ -3604,7 +3615,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="50" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -3623,7 +3634,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
@@ -3643,7 +3654,7 @@
         <v>69</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
@@ -3703,7 +3714,7 @@
         <v>61</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
@@ -3717,7 +3728,7 @@
     </row>
     <row r="56" spans="1:13" s="14" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>3</v>
@@ -3753,7 +3764,7 @@
     </row>
     <row r="59" spans="1:13" s="14" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>23</v>
@@ -3797,12 +3808,12 @@
       <c r="M61" s="15"/>
     </row>
     <row r="62" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:13" ht="33.75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
@@ -3828,13 +3839,13 @@
     </row>
     <row r="65" spans="1:13" s="14" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="66" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -3849,12 +3860,12 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
     </row>
     <row r="68" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
@@ -3864,18 +3875,18 @@
         <v>10</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:13" s="11" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
@@ -3895,7 +3906,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -3906,18 +3917,18 @@
         <v>3</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="72" spans="1:13" s="14" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="146.25" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -3945,7 +3956,7 @@
         <v>54</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -3956,18 +3967,18 @@
         <v>12</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="1:13" s="14" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
@@ -3980,12 +3991,12 @@
       <c r="M76" s="15"/>
     </row>
     <row r="77" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
     </row>
     <row r="78" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
@@ -4009,7 +4020,7 @@
         <v>75</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4031,7 +4042,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4042,16 +4053,16 @@
         <v>12</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
+      <c r="A83" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
     </row>
     <row r="84" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
@@ -4089,7 +4100,7 @@
         <v>10</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="87" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4104,12 +4115,12 @@
       </c>
     </row>
     <row r="88" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
     </row>
     <row r="89" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
@@ -4164,12 +4175,12 @@
       </c>
     </row>
     <row r="94" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="18" t="s">
+      <c r="A94" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
     </row>
     <row r="95" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
@@ -4190,7 +4201,7 @@
         <v>11</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4277,7 +4288,7 @@
         <v>11</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4288,7 +4299,7 @@
         <v>23</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4299,7 +4310,7 @@
         <v>23</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="108" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4336,12 +4347,12 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="18" t="s">
+      <c r="A111" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
     </row>
     <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
@@ -4389,7 +4400,7 @@
         <v>3</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="117" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4400,7 +4411,7 @@
         <v>3</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="118" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4422,7 +4433,7 @@
         <v>65</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="120" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4433,7 +4444,7 @@
         <v>12</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="121" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4444,7 +4455,7 @@
         <v>12</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="122" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4455,7 +4466,7 @@
         <v>12</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="45" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4469,7 +4480,7 @@
         <v>72</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="124" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4480,7 +4491,7 @@
         <v>10</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="125" spans="1:13" s="2" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4491,7 +4502,7 @@
         <v>69</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E125" s="15"/>
       <c r="F125" s="15"/>
@@ -4544,7 +4555,7 @@
     </row>
     <row r="129" spans="1:13" s="14" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>3</v>
@@ -4601,12 +4612,12 @@
       </c>
     </row>
     <row r="134" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="18" t="s">
+      <c r="A134" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B134" s="19"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
     </row>
     <row r="135" spans="1:13" s="2" customFormat="1" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
@@ -4636,7 +4647,7 @@
         <v>11</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E136" s="15"/>
       <c r="F136" s="15"/>
@@ -4670,7 +4681,7 @@
         <v>60</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="139" spans="1:13" s="11" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4681,7 +4692,7 @@
         <v>59</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E139" s="15"/>
       <c r="F139" s="15"/>
@@ -4695,16 +4706,16 @@
     </row>
     <row r="140" spans="1:13" s="11" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B140" s="11" t="s">
         <v>250</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E140" s="15"/>
       <c r="F140" s="15"/>
@@ -4718,13 +4729,13 @@
     </row>
     <row r="141" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>250</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="142" spans="1:13" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4755,7 +4766,7 @@
         <v>11</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E143" s="15"/>
       <c r="F143" s="15"/>
@@ -4775,7 +4786,7 @@
         <v>23</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E144" s="15"/>
       <c r="F144" s="15"/>
@@ -4795,7 +4806,7 @@
         <v>23</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E145" s="15"/>
       <c r="F145" s="15"/>
@@ -4868,12 +4879,12 @@
       <c r="M148" s="15"/>
     </row>
     <row r="149" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A149" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="B149" s="19"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="19"/>
+      <c r="A149" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="B149" s="21"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
     </row>
     <row r="150" spans="1:13" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
@@ -4883,7 +4894,7 @@
         <v>10</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="151" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4964,7 +4975,7 @@
         <v>3</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E156" s="15"/>
       <c r="F156" s="15"/>
@@ -4984,7 +4995,7 @@
         <v>65</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="158" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4994,7 +5005,7 @@
       <c r="B158" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D158" s="22" t="s">
+      <c r="D158" s="25" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5005,7 +5016,7 @@
       <c r="B159" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D159" s="23"/>
+      <c r="D159" s="26"/>
     </row>
     <row r="160" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
@@ -5017,7 +5028,7 @@
       <c r="C160" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D160" s="23"/>
+      <c r="D160" s="26"/>
     </row>
     <row r="161" spans="1:13" ht="11.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A161" s="15" t="s">
@@ -5026,7 +5037,7 @@
       <c r="B161" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D161" s="23"/>
+      <c r="D161" s="26"/>
     </row>
     <row r="162" spans="1:13" s="6" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
@@ -5056,7 +5067,7 @@
         <v>11</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E163" s="15"/>
       <c r="F163" s="15"/>
@@ -5096,7 +5107,7 @@
         <v>23</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E165" s="15"/>
       <c r="F165" s="15"/>
@@ -5172,12 +5183,12 @@
       <c r="M168" s="15"/>
     </row>
     <row r="169" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A169" s="18" t="s">
+      <c r="A169" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B169" s="19"/>
-      <c r="C169" s="19"/>
-      <c r="D169" s="19"/>
+      <c r="B169" s="21"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="21"/>
     </row>
     <row r="170" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
@@ -5198,7 +5209,7 @@
         <v>11</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="172" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5239,7 +5250,7 @@
         <v>11</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5250,7 +5261,7 @@
         <v>23</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5261,7 +5272,7 @@
         <v>23</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="178" spans="1:4" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5298,20 +5309,20 @@
       </c>
     </row>
     <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A181" s="18" t="s">
+      <c r="A181" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B181" s="19"/>
-      <c r="C181" s="19"/>
-      <c r="D181" s="19"/>
+      <c r="B181" s="21"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="21"/>
     </row>
     <row r="182" spans="1:4" s="14" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="20" t="s">
+      <c r="A182" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="B182" s="21"/>
-      <c r="C182" s="21"/>
-      <c r="D182" s="21"/>
+      <c r="B182" s="29"/>
+      <c r="C182" s="29"/>
+      <c r="D182" s="29"/>
     </row>
     <row r="183" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
@@ -5332,7 +5343,7 @@
         <v>11</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -5343,7 +5354,7 @@
         <v>23</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -5354,7 +5365,7 @@
         <v>23</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="187" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -5387,7 +5398,7 @@
         <v>35</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="190" spans="1:4" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -5402,12 +5413,12 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A191" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="B191" s="19"/>
-      <c r="C191" s="19"/>
-      <c r="D191" s="19"/>
+      <c r="A191" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="B191" s="21"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="21"/>
     </row>
     <row r="192" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
@@ -5428,7 +5439,7 @@
         <v>11</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="194" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5439,7 +5450,7 @@
         <v>23</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5450,7 +5461,7 @@
         <v>23</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="196" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5483,7 +5494,7 @@
         <v>35</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="199" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5516,7 +5527,7 @@
         <v>11</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>354</v>
+        <v>449</v>
       </c>
     </row>
     <row r="202" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5527,7 +5538,7 @@
         <v>7</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="203" spans="1:13" s="11" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5549,7 +5560,7 @@
     </row>
     <row r="204" spans="1:13" s="11" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B204" s="11" t="s">
         <v>10</v>
@@ -5566,19 +5577,19 @@
     </row>
     <row r="205" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:13" s="7" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="18" t="s">
+      <c r="A206" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="B206" s="19"/>
-      <c r="C206" s="19"/>
-      <c r="D206" s="19"/>
+      <c r="B206" s="21"/>
+      <c r="C206" s="21"/>
+      <c r="D206" s="21"/>
       <c r="E206" s="15"/>
       <c r="F206" s="15"/>
       <c r="G206" s="15"/>
@@ -5614,7 +5625,7 @@
         <v>11</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>355</v>
+        <v>450</v>
       </c>
       <c r="E208" s="15"/>
       <c r="F208" s="15"/>
@@ -5687,14 +5698,14 @@
       <c r="M211" s="15"/>
     </row>
     <row r="212" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A212" s="18" t="s">
+      <c r="A212" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="B212" s="19"/>
-      <c r="C212" s="19"/>
-      <c r="D212" s="19"/>
-    </row>
-    <row r="213" spans="1:13" s="8" customFormat="1" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="21"/>
+      <c r="C212" s="21"/>
+      <c r="D212" s="21"/>
+    </row>
+    <row r="213" spans="1:13" s="8" customFormat="1" ht="33.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A213" s="15" t="s">
         <v>230</v>
       </c>
@@ -5719,7 +5730,7 @@
         <v>231</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E214" s="15"/>
       <c r="F214" s="15"/>
@@ -5731,12 +5742,12 @@
       <c r="L214" s="15"/>
       <c r="M214" s="15"/>
     </row>
-    <row r="215" spans="1:13" s="8" customFormat="1" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" s="8" customFormat="1" ht="33.75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A215" s="15" t="s">
         <v>263</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E215" s="15"/>
       <c r="F215" s="15"/>
@@ -5753,7 +5764,7 @@
         <v>264</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>355</v>
+        <v>450</v>
       </c>
     </row>
     <row r="217" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5786,7 +5797,7 @@
         <v>23</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="220" spans="1:13" s="15" customFormat="1" ht="67.5" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5797,10 +5808,10 @@
         <v>185</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D220" s="15" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="221" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5816,7 +5827,7 @@
     </row>
     <row r="222" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B222" s="15" t="s">
         <v>12</v>
@@ -5844,23 +5855,23 @@
         <v>23</v>
       </c>
       <c r="D224" s="15" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="225" spans="1:13" s="17" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A225" s="17" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B225" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D225" s="16" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="226" spans="1:13" s="17" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A226" s="17" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B226" s="17" t="s">
         <v>3</v>
@@ -5871,27 +5882,27 @@
     </row>
     <row r="227" spans="1:13" s="17" customFormat="1" ht="67.5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A227" s="17" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B227" s="17" t="s">
         <v>185</v>
       </c>
       <c r="C227" s="17" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="228" spans="1:13" s="17" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A228" s="17" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B228" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="229" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5913,7 +5924,7 @@
         <v>23</v>
       </c>
       <c r="D230" s="15" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="231" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -5940,18 +5951,18 @@
     </row>
     <row r="233" spans="1:13" s="15" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A233" s="15" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B233" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="234" spans="1:13" s="15" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A234" s="15" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B234" s="15" t="s">
         <v>3</v>
@@ -5959,13 +5970,13 @@
     </row>
     <row r="235" spans="1:13" s="15" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A235" s="15" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B235" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C235" s="15" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="236" spans="1:13" s="2" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6005,15 +6016,15 @@
       <c r="L237" s="15"/>
       <c r="M237" s="15"/>
     </row>
-    <row r="238" spans="1:13" s="15" customFormat="1" ht="33.75" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" s="15" customFormat="1" ht="45" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A238" s="15" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B238" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="239" spans="1:13" s="2" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -6043,8 +6054,8 @@
       <c r="B240" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D240" s="24" t="s">
-        <v>416</v>
+      <c r="D240" s="27" t="s">
+        <v>413</v>
       </c>
       <c r="E240" s="15"/>
       <c r="F240" s="15"/>
@@ -6058,15 +6069,15 @@
     </row>
     <row r="241" spans="1:13" s="13" customFormat="1" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A241" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="D241" s="23"/>
+        <v>412</v>
+      </c>
+      <c r="D241" s="26"/>
       <c r="E241" s="15"/>
       <c r="F241" s="15"/>
       <c r="G241" s="15"/>
@@ -6088,7 +6099,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="45" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" ht="56.25" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A243" s="15" t="s">
         <v>236</v>
       </c>
@@ -6096,7 +6107,7 @@
         <v>23</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
     </row>
     <row r="244" spans="1:13" ht="11.25" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -6106,7 +6117,7 @@
       <c r="B244" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D244" s="22" t="s">
+      <c r="D244" s="25" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6117,7 +6128,7 @@
       <c r="B245" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D245" s="23"/>
+      <c r="D245" s="26"/>
     </row>
     <row r="246" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A246" s="15" t="s">
@@ -6155,7 +6166,7 @@
         <v>69</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>70</v>
@@ -6191,7 +6202,7 @@
     </row>
     <row r="251" spans="1:13" s="14" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A251" s="15" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B251" s="14" t="s">
         <v>3</v>
@@ -6225,18 +6236,18 @@
         <v>23</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>325</v>
+        <v>453</v>
       </c>
     </row>
     <row r="254" spans="1:13" ht="33.75" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A254" s="15" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="255" spans="1:13" ht="22.5" outlineLevel="4" x14ac:dyDescent="0.25">
@@ -6256,12 +6267,12 @@
       </c>
     </row>
     <row r="257" spans="1:13" s="9" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="25" t="s">
+      <c r="A257" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="B257" s="26"/>
-      <c r="C257" s="26"/>
-      <c r="D257" s="26"/>
+      <c r="B257" s="23"/>
+      <c r="C257" s="23"/>
+      <c r="D257" s="23"/>
       <c r="E257" s="15"/>
       <c r="F257" s="15"/>
       <c r="G257" s="15"/>
@@ -6300,7 +6311,7 @@
         <v>23</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>355</v>
+        <v>450</v>
       </c>
       <c r="E259" s="15"/>
       <c r="F259" s="15"/>
@@ -6333,12 +6344,12 @@
       <c r="M260" s="15"/>
     </row>
     <row r="261" spans="1:13" s="7" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="27" t="s">
+      <c r="A261" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="B261" s="26"/>
-      <c r="C261" s="26"/>
-      <c r="D261" s="26"/>
+      <c r="B261" s="23"/>
+      <c r="C261" s="23"/>
+      <c r="D261" s="23"/>
       <c r="E261" s="15"/>
       <c r="F261" s="15"/>
       <c r="G261" s="15"/>
@@ -6371,7 +6382,7 @@
         <v>11</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E263" s="15"/>
       <c r="F263" s="15"/>
@@ -6400,163 +6411,175 @@
       <c r="L264" s="15"/>
       <c r="M264" s="15"/>
     </row>
-    <row r="265" spans="1:13" s="7" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="25" t="s">
+    <row r="265" spans="1:13" s="18" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A265" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B265" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="E265" s="19"/>
+      <c r="F265" s="19"/>
+      <c r="G265" s="19"/>
+      <c r="H265" s="19"/>
+      <c r="I265" s="19"/>
+      <c r="J265" s="19"/>
+      <c r="K265" s="19"/>
+      <c r="L265" s="19"/>
+      <c r="M265" s="19"/>
+    </row>
+    <row r="266" spans="1:13" s="7" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="B265" s="26"/>
-      <c r="C265" s="26"/>
-      <c r="D265" s="26"/>
-      <c r="E265" s="15"/>
-      <c r="F265" s="15"/>
-      <c r="G265" s="15"/>
-      <c r="H265" s="15"/>
-      <c r="I265" s="15"/>
-      <c r="J265" s="15"/>
-      <c r="K265" s="15"/>
-      <c r="L265" s="15"/>
-      <c r="M265" s="15"/>
-    </row>
-    <row r="266" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A266" s="14" t="s">
+      <c r="B266" s="23"/>
+      <c r="C266" s="23"/>
+      <c r="D266" s="23"/>
+      <c r="E266" s="15"/>
+      <c r="F266" s="15"/>
+      <c r="G266" s="15"/>
+      <c r="H266" s="15"/>
+      <c r="I266" s="15"/>
+      <c r="J266" s="15"/>
+      <c r="K266" s="15"/>
+      <c r="L266" s="15"/>
+      <c r="M266" s="15"/>
+    </row>
+    <row r="267" spans="1:13" ht="22.5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A267" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B267" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D266" s="3" t="s">
+      <c r="D267" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="267" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A267" s="14" t="s">
+    <row r="268" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A268" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B268" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D267" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A268" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D268" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="269" spans="1:13" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A269" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" ht="22.5" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A270" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B270" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C270" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="270" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A270" s="14" t="s">
+    <row r="271" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A271" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B271" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A271" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="s">
-        <v>361</v>
+        <v>175</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C272" s="3" t="s">
-        <v>363</v>
-      </c>
     </row>
     <row r="273" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A273" s="14" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D273" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" s="7" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="25" t="s">
+      <c r="C273" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A274" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" s="7" customFormat="1" ht="12.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="B274" s="26"/>
-      <c r="C274" s="26"/>
-      <c r="D274" s="26"/>
-      <c r="E274" s="15"/>
-      <c r="F274" s="15"/>
-      <c r="G274" s="15"/>
-      <c r="H274" s="15"/>
-      <c r="I274" s="15"/>
-      <c r="J274" s="15"/>
-      <c r="K274" s="15"/>
-      <c r="L274" s="15"/>
-      <c r="M274" s="15"/>
-    </row>
-    <row r="275" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A275" s="14" t="s">
+      <c r="B275" s="23"/>
+      <c r="C275" s="23"/>
+      <c r="D275" s="23"/>
+      <c r="E275" s="15"/>
+      <c r="F275" s="15"/>
+      <c r="G275" s="15"/>
+      <c r="H275" s="15"/>
+      <c r="I275" s="15"/>
+      <c r="J275" s="15"/>
+      <c r="K275" s="15"/>
+      <c r="L275" s="15"/>
+      <c r="M275" s="15"/>
+    </row>
+    <row r="276" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A276" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B276" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D275" s="3" t="s">
+      <c r="D276" s="3" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A276" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="277" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A278" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B278" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A278" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A279" s="14" t="s">
-        <v>302</v>
+        <v>188</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>3</v>
@@ -6564,38 +6587,26 @@
     </row>
     <row r="280" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A280" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A281" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" s="7" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A282" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B281" s="7" t="s">
+      <c r="B282" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="E281" s="15"/>
-      <c r="F281" s="15"/>
-      <c r="G281" s="15"/>
-      <c r="H281" s="15"/>
-      <c r="I281" s="15"/>
-      <c r="J281" s="15"/>
-      <c r="K281" s="15"/>
-      <c r="L281" s="15"/>
-      <c r="M281" s="15"/>
-    </row>
-    <row r="282" spans="1:13" s="8" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A282" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B282" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C282" s="8" t="s">
-        <v>402</v>
       </c>
       <c r="E282" s="15"/>
       <c r="F282" s="15"/>
@@ -6607,15 +6618,15 @@
       <c r="L282" s="15"/>
       <c r="M282" s="15"/>
     </row>
-    <row r="283" spans="1:13" s="8" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" s="8" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A283" s="14" t="s">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>253</v>
+        <v>69</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>289</v>
+        <v>399</v>
       </c>
       <c r="E283" s="15"/>
       <c r="F283" s="15"/>
@@ -6627,15 +6638,15 @@
       <c r="L283" s="15"/>
       <c r="M283" s="15"/>
     </row>
-    <row r="284" spans="1:13" s="7" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" s="8" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A284" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B284" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C284" s="7" t="s">
-        <v>290</v>
+        <v>255</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C284" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="E284" s="15"/>
       <c r="F284" s="15"/>
@@ -6649,10 +6660,13 @@
     </row>
     <row r="285" spans="1:13" s="7" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A285" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="E285" s="15"/>
       <c r="F285" s="15"/>
@@ -6664,74 +6678,81 @@
       <c r="L285" s="15"/>
       <c r="M285" s="15"/>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" s="7" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A286" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="B286" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E286" s="15"/>
+      <c r="F286" s="15"/>
+      <c r="G286" s="15"/>
+      <c r="H286" s="15"/>
+      <c r="I286" s="15"/>
+      <c r="J286" s="15"/>
+      <c r="K286" s="15"/>
+      <c r="L286" s="15"/>
+      <c r="M286" s="15"/>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A287" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B287" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A287" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="B287" s="26"/>
-      <c r="C287" s="26"/>
-      <c r="D287" s="26"/>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A288" s="14" t="s">
+    <row r="288" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A288" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="B288" s="23"/>
+      <c r="C288" s="23"/>
+      <c r="D288" s="23"/>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A289" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B288" s="14" t="s">
+      <c r="B289" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C288" s="14"/>
-      <c r="D288" s="14"/>
-    </row>
-    <row r="289" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="D289" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="E289" s="15"/>
-      <c r="F289" s="15"/>
-      <c r="G289" s="15"/>
-      <c r="H289" s="15"/>
-      <c r="I289" s="15"/>
-      <c r="J289" s="15"/>
-      <c r="K289" s="15"/>
-      <c r="L289" s="15"/>
-      <c r="M289" s="15"/>
-    </row>
-    <row r="290" spans="1:13" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="C289" s="14"/>
+      <c r="D289" s="14"/>
+    </row>
+    <row r="290" spans="1:13" s="14" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="D290" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="E290" s="15"/>
+      <c r="F290" s="15"/>
+      <c r="G290" s="15"/>
+      <c r="H290" s="15"/>
+      <c r="I290" s="15"/>
+      <c r="J290" s="15"/>
+      <c r="K290" s="15"/>
+      <c r="L290" s="15"/>
+      <c r="M290" s="15"/>
+    </row>
+    <row r="291" spans="1:13" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A291" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B290" s="14" t="s">
+      <c r="B291" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C290" s="14" t="s">
+      <c r="C291" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D290" s="14"/>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A291" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B291" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C291" s="14"/>
       <c r="D291" s="14"/>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B292" s="14" t="s">
         <v>3</v>
@@ -6741,7 +6762,7 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B293" s="14" t="s">
         <v>3</v>
@@ -6749,50 +6770,61 @@
       <c r="C293" s="14"/>
       <c r="D293" s="14"/>
     </row>
-    <row r="294" spans="1:13" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="s">
-        <v>432</v>
+        <v>113</v>
       </c>
       <c r="B294" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C294" s="14"/>
+      <c r="D294" s="14"/>
+    </row>
+    <row r="295" spans="1:13" ht="146.25" x14ac:dyDescent="0.25">
+      <c r="A295" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B295" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C294" s="14" t="s">
+      <c r="C295" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D294" s="14"/>
-    </row>
-    <row r="295" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A295" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="B295" s="14" t="s">
+      <c r="D295" s="14"/>
+    </row>
+    <row r="296" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A296" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B296" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C295" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="D295" s="14"/>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A296" s="14" t="s">
+      <c r="C296" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="D296" s="14"/>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A297" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B296" s="14" t="s">
+      <c r="B297" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C296" s="14"/>
-      <c r="D296" s="14"/>
+      <c r="C297" s="14"/>
+      <c r="D297" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A287:D287"/>
-    <mergeCell ref="A261:D261"/>
-    <mergeCell ref="A265:D265"/>
-    <mergeCell ref="A274:D274"/>
-    <mergeCell ref="A206:D206"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="A257:D257"/>
-    <mergeCell ref="D240:D241"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="D158:D161"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A94:D94"/>
@@ -6802,17 +6834,17 @@
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A182:D182"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="A288:D288"/>
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A266:D266"/>
+    <mergeCell ref="A275:D275"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="A257:D257"/>
+    <mergeCell ref="D240:D241"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="60" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>